--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_32.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2699230.155123861</v>
+        <v>2698843.106560606</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>248264.7300148718</v>
+        <v>248264.7300148706</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736548</v>
+        <v>504792.0292736543</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10.00967878293136</v>
+        <v>371.3716030996314</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>41.99558217765591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>116.5800152717484</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>28.97866885567969</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>139.0040357308909</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>201.7291828791257</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>265.6761781796205</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>220.5058821994488</v>
       </c>
     </row>
     <row r="6">
@@ -984,13 +984,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>73.75862459806008</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
         <v>67.69846245683961</v>
@@ -1026,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>53.98526983609968</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
@@ -1041,7 +1041,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>138.9470600201528</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>177.0990279530006</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>37.50107437580775</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>187.7397875354463</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
         <v>145.5577298436975</v>
@@ -1224,7 +1224,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>148.0986694085915</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>158.7034744856297</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>167.1394242513582</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>177.0990279530006</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>276.6729386146302</v>
       </c>
       <c r="C11" t="n">
-        <v>123.2377203307407</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>298.5127811721451</v>
       </c>
       <c r="H11" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>57.65886129508321</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.92652010774084</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W11" t="n">
-        <v>245.4794153327662</v>
+        <v>229.5018417896639</v>
       </c>
       <c r="X11" t="n">
         <v>264.7796735655128</v>
@@ -1461,10 +1461,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>127.4412149769483</v>
+        <v>38.47629877891892</v>
       </c>
       <c r="H12" t="n">
-        <v>9.973562680740013</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
         <v>67.69846245683961</v>
@@ -1546,7 +1546,7 @@
         <v>44.34875326031018</v>
       </c>
       <c r="I13" t="n">
-        <v>29.3308484451395</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1610,10 +1610,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>119.7293572876946</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>296.5795132747226</v>
@@ -1625,7 +1625,7 @@
         <v>216.0628961504551</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>71.92652010774084</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U14" t="n">
         <v>138.9063174149372</v>
@@ -1667,13 +1667,13 @@
         <v>220.1793158548093</v>
       </c>
       <c r="W14" t="n">
-        <v>245.4794153327662</v>
+        <v>178.3540082824154</v>
       </c>
       <c r="X14" t="n">
         <v>264.7796735655128</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
-        <v>9.973562680740013</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
         <v>67.69846245683961</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>151.2714921173871</v>
+        <v>121.4930021353616</v>
       </c>
       <c r="T15" t="n">
         <v>186.7982527956746</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>151.2714921173871</v>
+        <v>121.4930021353616</v>
       </c>
       <c r="T18" t="n">
         <v>186.7982527956746</v>
@@ -1980,7 +1980,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V18" t="n">
-        <v>137.1467501281206</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
         <v>238.9027100790231</v>
@@ -2132,7 +2132,7 @@
         <v>14.26765881265763</v>
       </c>
       <c r="T20" t="n">
-        <v>51.02633000300676</v>
+        <v>51.02633000300699</v>
       </c>
       <c r="U20" t="n">
         <v>81.24745611985395</v>
@@ -2172,10 +2172,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>38.47629877891934</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93847887876893</v>
+        <v>9.973562680739576</v>
       </c>
       <c r="I21" t="n">
         <v>67.69846245683961</v>
@@ -2403,13 +2403,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
-        <v>56.59281364566805</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4412149769483</v>
+        <v>38.47629877891847</v>
       </c>
       <c r="H24" t="n">
         <v>98.93847887876893</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>276.6729386146302</v>
+        <v>232.9815450352293</v>
       </c>
       <c r="C26" t="n">
         <v>264.6842555723119</v>
@@ -2570,7 +2570,7 @@
         <v>298.5127811721451</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
         <v>57.65886129508321</v>
@@ -2612,7 +2612,7 @@
         <v>138.9063174149372</v>
       </c>
       <c r="V26" t="n">
-        <v>116.374547064153</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W26" t="n">
         <v>245.4794153327662</v>
@@ -2621,7 +2621,7 @@
         <v>264.7796735655128</v>
       </c>
       <c r="Y26" t="n">
-        <v>276.1762713617116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2691,7 +2691,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V27" t="n">
-        <v>211.5461750406456</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W27" t="n">
         <v>238.9027100790231</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>65.49046497161007</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C29" t="n">
         <v>264.6842555723119</v>
@@ -2840,19 +2840,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>71.92652010774084</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U29" t="n">
         <v>138.9063174149372</v>
       </c>
       <c r="V29" t="n">
-        <v>220.1793158548093</v>
+        <v>217.7175863542029</v>
       </c>
       <c r="W29" t="n">
-        <v>245.4794153327662</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>264.7796735655128</v>
@@ -2886,7 +2886,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>84.37298759326538</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
         <v>67.69846245683961</v>
@@ -2919,7 +2919,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
-        <v>151.2714921173871</v>
+        <v>136.7060008318836</v>
       </c>
       <c r="T30" t="n">
         <v>186.7982527956746</v>
@@ -3032,7 +3032,7 @@
         <v>236.3785309329357</v>
       </c>
       <c r="D32" t="n">
-        <v>227.3598349774637</v>
+        <v>227.3598349774636</v>
       </c>
       <c r="E32" t="n">
         <v>249.1019725473692</v>
@@ -3047,7 +3047,7 @@
         <v>187.7571715110788</v>
       </c>
       <c r="I32" t="n">
-        <v>29.35313665570695</v>
+        <v>29.35313665570692</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,19 +3077,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>43.62079546836458</v>
+        <v>43.62079546836455</v>
       </c>
       <c r="T32" t="n">
-        <v>80.37946665871394</v>
+        <v>80.37946665871391</v>
       </c>
       <c r="U32" t="n">
         <v>110.6005927755609</v>
       </c>
       <c r="V32" t="n">
-        <v>191.8735912154331</v>
+        <v>191.873591215433</v>
       </c>
       <c r="W32" t="n">
-        <v>217.17369069339</v>
+        <v>217.1736906933899</v>
       </c>
       <c r="X32" t="n">
         <v>236.4739489261366</v>
@@ -3117,7 +3117,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
-        <v>118.781368784121</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
         <v>127.4412149769483</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>39.98392484995102</v>
+        <v>39.98392484995099</v>
       </c>
       <c r="C34" t="n">
-        <v>26.18391969535151</v>
+        <v>26.18391969535148</v>
       </c>
       <c r="D34" t="n">
-        <v>9.805284092929895</v>
+        <v>9.805284092929867</v>
       </c>
       <c r="E34" t="n">
-        <v>8.753033948709344</v>
+        <v>8.753033948709316</v>
       </c>
       <c r="F34" t="n">
-        <v>9.219958276895653</v>
+        <v>9.219958276895625</v>
       </c>
       <c r="G34" t="n">
-        <v>25.49466099824349</v>
+        <v>25.49466099824346</v>
       </c>
       <c r="H34" t="n">
-        <v>16.04302862093391</v>
+        <v>16.04302862093388</v>
       </c>
       <c r="I34" t="n">
-        <v>1.025123805763258</v>
+        <v>1.025123805763229</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.290673424180568</v>
+        <v>6.29067342418054</v>
       </c>
       <c r="S34" t="n">
-        <v>69.83677482276431</v>
+        <v>69.83677482276428</v>
       </c>
       <c r="T34" t="n">
-        <v>89.11127350489295</v>
+        <v>89.11127350489292</v>
       </c>
       <c r="U34" t="n">
         <v>142.5824469682061</v>
@@ -3247,13 +3247,13 @@
         <v>116.3920612495766</v>
       </c>
       <c r="W34" t="n">
-        <v>141.5589473201899</v>
+        <v>141.5589473201898</v>
       </c>
       <c r="X34" t="n">
-        <v>87.20404931599299</v>
+        <v>87.20404931599296</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.07891707206068</v>
+        <v>78.07891707206065</v>
       </c>
     </row>
     <row r="35">
@@ -3357,7 +3357,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>112.875723691445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
         <v>98.93847887876893</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050007</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3645,7 +3645,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X39" t="n">
-        <v>181.3723269554795</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y39" t="n">
         <v>190.5961130869169</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>229.5454454620313</v>
+        <v>229.545445462031</v>
       </c>
       <c r="C41" t="n">
-        <v>217.556762419713</v>
+        <v>217.5567624197128</v>
       </c>
       <c r="D41" t="n">
-        <v>208.538066464241</v>
+        <v>208.5380664642407</v>
       </c>
       <c r="E41" t="n">
-        <v>230.2802040341465</v>
+        <v>230.2802040341463</v>
       </c>
       <c r="F41" t="n">
-        <v>249.4520201221237</v>
+        <v>249.4520201221234</v>
       </c>
       <c r="G41" t="n">
-        <v>251.3852880195462</v>
+        <v>251.385288019546</v>
       </c>
       <c r="H41" t="n">
-        <v>168.9354029978561</v>
+        <v>168.9354029978559</v>
       </c>
       <c r="I41" t="n">
-        <v>10.53136814248427</v>
+        <v>10.53136814248401</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>24.7990269551419</v>
+        <v>24.79902695514164</v>
       </c>
       <c r="T41" t="n">
-        <v>61.55769814549126</v>
+        <v>61.557698145491</v>
       </c>
       <c r="U41" t="n">
-        <v>91.77882426233822</v>
+        <v>8.207727037602675</v>
       </c>
       <c r="V41" t="n">
-        <v>173.0518227022104</v>
+        <v>173.0518227022101</v>
       </c>
       <c r="W41" t="n">
-        <v>114.7808249554286</v>
+        <v>198.351922180167</v>
       </c>
       <c r="X41" t="n">
-        <v>217.6521804129139</v>
+        <v>217.6521804129137</v>
       </c>
       <c r="Y41" t="n">
-        <v>229.0487782091127</v>
+        <v>229.0487782091124</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3834,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326568</v>
       </c>
       <c r="I42" t="n">
         <v>67.69846245683961</v>
@@ -3870,7 +3870,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T42" t="n">
-        <v>172.2327615101711</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U42" t="n">
         <v>216.3098444776729</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.16215633672834</v>
+        <v>21.16215633672809</v>
       </c>
       <c r="C43" t="n">
-        <v>7.362151182128827</v>
+        <v>7.362151182128571</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>6.67289248502081</v>
+        <v>6.672892485020554</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>51.01500630954163</v>
+        <v>51.01500630954138</v>
       </c>
       <c r="T43" t="n">
-        <v>70.28950499167027</v>
+        <v>70.28950499167001</v>
       </c>
       <c r="U43" t="n">
-        <v>123.7606784549834</v>
+        <v>123.7606784549832</v>
       </c>
       <c r="V43" t="n">
-        <v>97.57029273635393</v>
+        <v>97.57029273635368</v>
       </c>
       <c r="W43" t="n">
-        <v>122.7371788069672</v>
+        <v>122.7371788069669</v>
       </c>
       <c r="X43" t="n">
-        <v>68.38228080277031</v>
+        <v>68.38228080277005</v>
       </c>
       <c r="Y43" t="n">
-        <v>59.257148558838</v>
+        <v>59.25714855883774</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>145.9743482372929</v>
+        <v>229.545445462031</v>
       </c>
       <c r="C44" t="n">
-        <v>217.556762419713</v>
+        <v>217.5567624197128</v>
       </c>
       <c r="D44" t="n">
-        <v>208.538066464241</v>
+        <v>208.5380664642407</v>
       </c>
       <c r="E44" t="n">
-        <v>230.2802040341465</v>
+        <v>146.7091068094116</v>
       </c>
       <c r="F44" t="n">
-        <v>249.4520201221237</v>
+        <v>249.4520201221234</v>
       </c>
       <c r="G44" t="n">
-        <v>251.3852880195462</v>
+        <v>251.385288019546</v>
       </c>
       <c r="H44" t="n">
-        <v>168.9354029978561</v>
+        <v>168.9354029978559</v>
       </c>
       <c r="I44" t="n">
-        <v>10.53136814248427</v>
+        <v>10.53136814248401</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>24.7990269551419</v>
+        <v>24.79902695514164</v>
       </c>
       <c r="T44" t="n">
-        <v>61.55769814549126</v>
+        <v>61.557698145491</v>
       </c>
       <c r="U44" t="n">
-        <v>91.77882426233822</v>
+        <v>91.77882426233796</v>
       </c>
       <c r="V44" t="n">
-        <v>173.0518227022104</v>
+        <v>173.0518227022101</v>
       </c>
       <c r="W44" t="n">
-        <v>198.3519221801673</v>
+        <v>198.351922180167</v>
       </c>
       <c r="X44" t="n">
-        <v>217.6521804129139</v>
+        <v>217.6521804129137</v>
       </c>
       <c r="Y44" t="n">
-        <v>229.0487782091127</v>
+        <v>229.0487782091124</v>
       </c>
     </row>
     <row r="45">
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
-        <v>151.2714921173871</v>
+        <v>136.7060008318836</v>
       </c>
       <c r="T45" t="n">
         <v>186.7982527956746</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>21.16215633672834</v>
+        <v>21.16215633672809</v>
       </c>
       <c r="C46" t="n">
-        <v>7.362151182128827</v>
+        <v>7.362151182128571</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>6.67289248502081</v>
+        <v>6.672892485020554</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>51.01500630954163</v>
+        <v>51.01500630954138</v>
       </c>
       <c r="T46" t="n">
-        <v>70.28950499167027</v>
+        <v>70.28950499167001</v>
       </c>
       <c r="U46" t="n">
-        <v>123.7606784549834</v>
+        <v>123.7606784549832</v>
       </c>
       <c r="V46" t="n">
-        <v>97.57029273635393</v>
+        <v>97.57029273635368</v>
       </c>
       <c r="W46" t="n">
-        <v>122.7371788069672</v>
+        <v>122.7371788069669</v>
       </c>
       <c r="X46" t="n">
-        <v>68.38228080277031</v>
+        <v>68.38228080277005</v>
       </c>
       <c r="Y46" t="n">
-        <v>59.257148558838</v>
+        <v>59.25714855883774</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1285.219594686127</v>
+        <v>427.0519768715507</v>
       </c>
       <c r="C2" t="n">
-        <v>903.2858360189346</v>
+        <v>427.0519768715507</v>
       </c>
       <c r="D2" t="n">
-        <v>903.2858360189346</v>
+        <v>427.0519768715507</v>
       </c>
       <c r="E2" t="n">
-        <v>508.5001161250414</v>
+        <v>427.0519768715507</v>
       </c>
       <c r="F2" t="n">
-        <v>498.3893294756158</v>
+        <v>51.92914545778158</v>
       </c>
       <c r="G2" t="n">
-        <v>82.28534292980379</v>
+        <v>39.86556295237362</v>
       </c>
       <c r="H2" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237362</v>
       </c>
       <c r="I2" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237362</v>
       </c>
       <c r="J2" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237362</v>
       </c>
       <c r="K2" t="n">
-        <v>280.0059349971563</v>
+        <v>280.0059349971564</v>
       </c>
       <c r="L2" t="n">
         <v>627.8913080821026</v>
@@ -4346,34 +4346,34 @@
         <v>1704.46641749574</v>
       </c>
       <c r="P2" t="n">
-        <v>1898.845893932142</v>
+        <v>1898.845893932144</v>
       </c>
       <c r="Q2" t="n">
-        <v>1993.278147618679</v>
+        <v>1993.278147618681</v>
       </c>
       <c r="R2" t="n">
-        <v>1902.639861114532</v>
+        <v>1902.639861114534</v>
       </c>
       <c r="S2" t="n">
-        <v>1902.639861114532</v>
+        <v>1902.639861114534</v>
       </c>
       <c r="T2" t="n">
-        <v>1902.639861114532</v>
+        <v>1902.639861114534</v>
       </c>
       <c r="U2" t="n">
-        <v>1647.754524828526</v>
+        <v>1902.639861114534</v>
       </c>
       <c r="V2" t="n">
-        <v>1647.754524828526</v>
+        <v>1565.660587010475</v>
       </c>
       <c r="W2" t="n">
-        <v>1285.219594686127</v>
+        <v>1203.125656868076</v>
       </c>
       <c r="X2" t="n">
-        <v>1285.219594686127</v>
+        <v>821.0955163895699</v>
       </c>
       <c r="Y2" t="n">
-        <v>1285.219594686127</v>
+        <v>821.0955163895699</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>784.4845254042918</v>
+        <v>755.2141066447475</v>
       </c>
       <c r="C3" t="n">
-        <v>622.7808526452466</v>
+        <v>593.5104338857022</v>
       </c>
       <c r="D3" t="n">
-        <v>483.9422156354587</v>
+        <v>454.6717968759143</v>
       </c>
       <c r="E3" t="n">
-        <v>336.9142056923299</v>
+        <v>336.91420569233</v>
       </c>
       <c r="F3" t="n">
-        <v>336.9142056923299</v>
+        <v>336.91420569233</v>
       </c>
       <c r="G3" t="n">
-        <v>208.1857057156145</v>
+        <v>208.1857057156146</v>
       </c>
       <c r="H3" t="n">
         <v>108.2478482623126</v>
       </c>
       <c r="I3" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237362</v>
       </c>
       <c r="J3" t="n">
-        <v>100.1197094854797</v>
+        <v>39.86556295237362</v>
       </c>
       <c r="K3" t="n">
-        <v>329.6102620456684</v>
+        <v>269.3561155125623</v>
       </c>
       <c r="L3" t="n">
-        <v>695.4321072157841</v>
+        <v>635.1779606826778</v>
       </c>
       <c r="M3" t="n">
-        <v>1141.210647773236</v>
+        <v>1120.211314192904</v>
       </c>
       <c r="N3" t="n">
-        <v>1141.210647773236</v>
+        <v>1601.07819683453</v>
       </c>
       <c r="O3" t="n">
-        <v>1533.410598557387</v>
+        <v>1993.278147618681</v>
       </c>
       <c r="P3" t="n">
-        <v>1835.506517833084</v>
+        <v>1993.278147618681</v>
       </c>
       <c r="Q3" t="n">
-        <v>1993.278147618679</v>
+        <v>1993.278147618681</v>
       </c>
       <c r="R3" t="n">
-        <v>1933.493878713625</v>
+        <v>1993.278147618681</v>
       </c>
       <c r="S3" t="n">
-        <v>1780.694391726365</v>
+        <v>1993.278147618681</v>
       </c>
       <c r="T3" t="n">
-        <v>1592.00928789235</v>
+        <v>1993.278147618681</v>
       </c>
       <c r="U3" t="n">
-        <v>1562.737905209845</v>
+        <v>1774.783355216991</v>
       </c>
       <c r="V3" t="n">
-        <v>1334.342282658179</v>
+        <v>1546.387732665325</v>
       </c>
       <c r="W3" t="n">
-        <v>1334.342282658179</v>
+        <v>1305.071863898635</v>
       </c>
       <c r="X3" t="n">
-        <v>1136.425294535974</v>
+        <v>1107.15487577643</v>
       </c>
       <c r="Y3" t="n">
-        <v>943.9039681855527</v>
+        <v>914.6335494260085</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>368.1579568052498</v>
+        <v>349.8896493905831</v>
       </c>
       <c r="C4" t="n">
-        <v>368.1579568052498</v>
+        <v>180.2736798522634</v>
       </c>
       <c r="D4" t="n">
-        <v>368.1579568052498</v>
+        <v>39.86556295237362</v>
       </c>
       <c r="E4" t="n">
-        <v>368.1579568052498</v>
+        <v>39.86556295237362</v>
       </c>
       <c r="F4" t="n">
-        <v>368.1579568052498</v>
+        <v>39.86556295237362</v>
       </c>
       <c r="G4" t="n">
-        <v>199.2382081730998</v>
+        <v>39.86556295237362</v>
       </c>
       <c r="H4" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237362</v>
       </c>
       <c r="I4" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237362</v>
       </c>
       <c r="J4" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237362</v>
       </c>
       <c r="K4" t="n">
-        <v>73.46975069701699</v>
+        <v>73.46975069701702</v>
       </c>
       <c r="L4" t="n">
         <v>174.0768300972765</v>
@@ -4528,10 +4528,10 @@
         <v>571.9248081983061</v>
       </c>
       <c r="X4" t="n">
-        <v>368.1579568052498</v>
+        <v>571.9248081983061</v>
       </c>
       <c r="Y4" t="n">
-        <v>368.1579568052498</v>
+        <v>349.8896493905831</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1097.008399957878</v>
+        <v>1770.544933275803</v>
       </c>
       <c r="C5" t="n">
-        <v>715.0746412906853</v>
+        <v>1770.544933275803</v>
       </c>
       <c r="D5" t="n">
-        <v>715.0746412906853</v>
+        <v>1770.544933275803</v>
       </c>
       <c r="E5" t="n">
-        <v>320.2889213967922</v>
+        <v>1375.75921338191</v>
       </c>
       <c r="F5" t="n">
-        <v>51.92914545778154</v>
+        <v>961.6080226920803</v>
       </c>
       <c r="G5" t="n">
-        <v>39.86556295237357</v>
+        <v>545.5040361462684</v>
       </c>
       <c r="H5" t="n">
-        <v>39.86556295237357</v>
+        <v>212.6827617435776</v>
       </c>
       <c r="I5" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237362</v>
       </c>
       <c r="J5" t="n">
-        <v>111.8641072251792</v>
+        <v>111.8641072251793</v>
       </c>
       <c r="K5" t="n">
-        <v>352.004479269962</v>
+        <v>340.660768664044</v>
       </c>
       <c r="L5" t="n">
-        <v>699.8898523549083</v>
+        <v>688.5461417489903</v>
       </c>
       <c r="M5" t="n">
-        <v>1093.129018607996</v>
+        <v>1081.785308002078</v>
       </c>
       <c r="N5" t="n">
-        <v>1365.684413003255</v>
+        <v>1460.116666689794</v>
       </c>
       <c r="O5" t="n">
-        <v>1670.688997476089</v>
+        <v>1765.121251162628</v>
       </c>
       <c r="P5" t="n">
-        <v>1898.845893932142</v>
+        <v>1993.278147618681</v>
       </c>
       <c r="Q5" t="n">
-        <v>1993.278147618679</v>
+        <v>1993.278147618681</v>
       </c>
       <c r="R5" t="n">
-        <v>1902.639861114532</v>
+        <v>1993.278147618681</v>
       </c>
       <c r="S5" t="n">
-        <v>1715.410885744886</v>
+        <v>1993.278147618681</v>
       </c>
       <c r="T5" t="n">
-        <v>1491.051939475897</v>
+        <v>1993.278147618681</v>
       </c>
       <c r="U5" t="n">
-        <v>1491.051939475897</v>
+        <v>1993.278147618681</v>
       </c>
       <c r="V5" t="n">
-        <v>1491.051939475897</v>
+        <v>1993.278147618681</v>
       </c>
       <c r="W5" t="n">
-        <v>1491.051939475897</v>
+        <v>1993.278147618681</v>
       </c>
       <c r="X5" t="n">
-        <v>1491.051939475897</v>
+        <v>1993.278147618681</v>
       </c>
       <c r="Y5" t="n">
-        <v>1491.051939475897</v>
+        <v>1770.544933275803</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>759.0503291611517</v>
+        <v>919.1783234544176</v>
       </c>
       <c r="C6" t="n">
-        <v>597.3466564021064</v>
+        <v>757.4746506953724</v>
       </c>
       <c r="D6" t="n">
-        <v>458.5080193923185</v>
+        <v>618.6360136855844</v>
       </c>
       <c r="E6" t="n">
-        <v>311.4800094491897</v>
+        <v>471.6080037424557</v>
       </c>
       <c r="F6" t="n">
-        <v>236.976348239028</v>
+        <v>336.91420569233</v>
       </c>
       <c r="G6" t="n">
-        <v>108.2478482623126</v>
+        <v>208.1857057156146</v>
       </c>
       <c r="H6" t="n">
         <v>108.2478482623126</v>
       </c>
       <c r="I6" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237362</v>
       </c>
       <c r="J6" t="n">
-        <v>100.1197094854797</v>
+        <v>39.86556295237362</v>
       </c>
       <c r="K6" t="n">
-        <v>329.6102620456684</v>
+        <v>39.86556295237362</v>
       </c>
       <c r="L6" t="n">
-        <v>647.8743062376134</v>
+        <v>405.6874081224893</v>
       </c>
       <c r="M6" t="n">
-        <v>647.8743062376134</v>
+        <v>890.7207616327157</v>
       </c>
       <c r="N6" t="n">
-        <v>1141.210647773236</v>
+        <v>1298.982277558833</v>
       </c>
       <c r="O6" t="n">
-        <v>1533.410598557387</v>
+        <v>1691.182228342984</v>
       </c>
       <c r="P6" t="n">
-        <v>1835.506517833084</v>
+        <v>1993.278147618681</v>
       </c>
       <c r="Q6" t="n">
-        <v>1993.278147618679</v>
+        <v>1993.278147618681</v>
       </c>
       <c r="R6" t="n">
-        <v>1993.278147618679</v>
+        <v>1993.278147618681</v>
       </c>
       <c r="S6" t="n">
-        <v>1993.278147618679</v>
+        <v>1993.278147618681</v>
       </c>
       <c r="T6" t="n">
-        <v>1804.593043784664</v>
+        <v>1993.278147618681</v>
       </c>
       <c r="U6" t="n">
-        <v>1586.098251382974</v>
+        <v>1938.747572026661</v>
       </c>
       <c r="V6" t="n">
-        <v>1357.702628831308</v>
+        <v>1710.351949474995</v>
       </c>
       <c r="W6" t="n">
-        <v>1116.386760064618</v>
+        <v>1469.036080708305</v>
       </c>
       <c r="X6" t="n">
-        <v>918.4697719424126</v>
+        <v>1271.1190925861</v>
       </c>
       <c r="Y6" t="n">
-        <v>918.4697719424126</v>
+        <v>1078.597766235679</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>349.8320981676153</v>
+        <v>209.4815324906933</v>
       </c>
       <c r="C7" t="n">
-        <v>180.2161286292956</v>
+        <v>39.86556295237362</v>
       </c>
       <c r="D7" t="n">
-        <v>180.2161286292956</v>
+        <v>39.86556295237362</v>
       </c>
       <c r="E7" t="n">
-        <v>180.2161286292956</v>
+        <v>39.86556295237362</v>
       </c>
       <c r="F7" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237362</v>
       </c>
       <c r="G7" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237362</v>
       </c>
       <c r="H7" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237362</v>
       </c>
       <c r="I7" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237362</v>
       </c>
       <c r="J7" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237362</v>
       </c>
       <c r="K7" t="n">
-        <v>73.46975069701699</v>
+        <v>73.46975069701702</v>
       </c>
       <c r="L7" t="n">
         <v>174.0768300972765</v>
@@ -4744,31 +4744,31 @@
         <v>571.9248081983061</v>
       </c>
       <c r="Q7" t="n">
-        <v>533.3874668519951</v>
+        <v>571.9248081983061</v>
       </c>
       <c r="R7" t="n">
-        <v>533.3874668519951</v>
+        <v>571.9248081983061</v>
       </c>
       <c r="S7" t="n">
-        <v>533.3874668519951</v>
+        <v>571.9248081983061</v>
       </c>
       <c r="T7" t="n">
-        <v>533.3874668519951</v>
+        <v>571.9248081983061</v>
       </c>
       <c r="U7" t="n">
-        <v>533.3874668519951</v>
+        <v>571.9248081983061</v>
       </c>
       <c r="V7" t="n">
-        <v>533.3874668519951</v>
+        <v>571.9248081983061</v>
       </c>
       <c r="W7" t="n">
-        <v>533.3874668519951</v>
+        <v>571.9248081983061</v>
       </c>
       <c r="X7" t="n">
-        <v>533.3874668519951</v>
+        <v>571.9248081983061</v>
       </c>
       <c r="Y7" t="n">
-        <v>533.3874668519951</v>
+        <v>393.0369011750731</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>474.9024631356858</v>
+        <v>1245.103398109617</v>
       </c>
       <c r="C8" t="n">
-        <v>474.9024631356858</v>
+        <v>1245.103398109617</v>
       </c>
       <c r="D8" t="n">
-        <v>102.0784983629093</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="E8" t="n">
-        <v>102.0784983629093</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F8" t="n">
-        <v>91.96771171348371</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G8" t="n">
-        <v>79.90412920807574</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T8" t="n">
-        <v>1823.345543186168</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U8" t="n">
-        <v>1568.460206900163</v>
+        <v>1434.739547135321</v>
       </c>
       <c r="V8" t="n">
-        <v>1231.480932796104</v>
+        <v>1245.103398109617</v>
       </c>
       <c r="W8" t="n">
-        <v>868.9460026537049</v>
+        <v>1245.103398109617</v>
       </c>
       <c r="X8" t="n">
-        <v>868.9460026537049</v>
+        <v>1245.103398109617</v>
       </c>
       <c r="Y8" t="n">
-        <v>868.9460026537049</v>
+        <v>1245.103398109617</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>653.7698796167399</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C9" t="n">
-        <v>492.0662068576946</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D9" t="n">
-        <v>492.0662068576946</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E9" t="n">
-        <v>345.0381969145658</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F9" t="n">
-        <v>210.3443988644402</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G9" t="n">
         <v>210.3443988644402</v>
@@ -4881,22 +4881,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L9" t="n">
-        <v>697.5908003646097</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M9" t="n">
-        <v>1182.624153874836</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N9" t="n">
-        <v>1693.889799997958</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O9" t="n">
-        <v>2086.089750782109</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P9" t="n">
         <v>2101.212805059961</v>
@@ -4905,28 +4905,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T9" t="n">
-        <v>1891.833920590673</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U9" t="n">
-        <v>1673.339128188983</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V9" t="n">
-        <v>1444.943505637317</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W9" t="n">
-        <v>1203.627636870627</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X9" t="n">
-        <v>1005.710648748422</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y9" t="n">
-        <v>813.1893223980007</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="10">
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6402256395189</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
         <v>42.02425610119923</v>
@@ -4984,28 +4984,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>210.8519573651974</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X10" t="n">
-        <v>395.1955943238988</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y10" t="n">
-        <v>395.1955943238988</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1331.849274159492</v>
+        <v>1198.23793859993</v>
       </c>
       <c r="C11" t="n">
-        <v>1207.366728370866</v>
+        <v>930.8801046885035</v>
       </c>
       <c r="D11" t="n">
-        <v>1207.366728370866</v>
+        <v>930.8801046885035</v>
       </c>
       <c r="E11" t="n">
-        <v>927.1569332327387</v>
+        <v>650.6703095503767</v>
       </c>
       <c r="F11" t="n">
-        <v>627.5816672986754</v>
+        <v>351.0950436163135</v>
       </c>
       <c r="G11" t="n">
-        <v>326.0536055086298</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="H11" t="n">
-        <v>107.8082558617054</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I11" t="n">
         <v>49.56698182626786</v>
@@ -5042,49 +5042,49 @@
         <v>233.8613899522002</v>
       </c>
       <c r="K11" t="n">
-        <v>506.7077309659657</v>
+        <v>474.001761996983</v>
       </c>
       <c r="L11" t="n">
-        <v>854.593104050912</v>
+        <v>821.8871350819293</v>
       </c>
       <c r="M11" t="n">
-        <v>1360.128134157127</v>
+        <v>1215.126301335017</v>
       </c>
       <c r="N11" t="n">
-        <v>1738.459492844842</v>
+        <v>1593.457660022733</v>
       </c>
       <c r="O11" t="n">
-        <v>2043.464077317676</v>
+        <v>1907.706934214136</v>
       </c>
       <c r="P11" t="n">
-        <v>2383.916837626856</v>
+        <v>2248.159694523316</v>
       </c>
       <c r="Q11" t="n">
-        <v>2478.349091313393</v>
+        <v>2454.88781206298</v>
       </c>
       <c r="R11" t="n">
         <v>2478.349091313393</v>
       </c>
       <c r="S11" t="n">
-        <v>2405.696040699514</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="T11" t="n">
-        <v>2405.696040699514</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="U11" t="n">
-        <v>2405.696040699514</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="V11" t="n">
-        <v>2405.696040699514</v>
+        <v>2255.945741965101</v>
       </c>
       <c r="W11" t="n">
-        <v>2157.737035312881</v>
+        <v>2024.125699753318</v>
       </c>
       <c r="X11" t="n">
-        <v>1890.282819590141</v>
+        <v>1756.671484030578</v>
       </c>
       <c r="Y11" t="n">
-        <v>1611.316888921745</v>
+        <v>1477.705553362182</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>839.0161906131311</v>
+        <v>839.0161906131307</v>
       </c>
       <c r="C12" t="n">
-        <v>677.3125178540859</v>
+        <v>677.3125178540854</v>
       </c>
       <c r="D12" t="n">
-        <v>538.4738808442979</v>
+        <v>538.4738808442975</v>
       </c>
       <c r="E12" t="n">
-        <v>391.4458709011691</v>
+        <v>391.4458709011687</v>
       </c>
       <c r="F12" t="n">
-        <v>256.7520728510435</v>
+        <v>256.7520728510431</v>
       </c>
       <c r="G12" t="n">
-        <v>128.0235728743281</v>
+        <v>217.8871245895088</v>
       </c>
       <c r="H12" t="n">
         <v>117.9492671362069</v>
@@ -5142,28 +5142,28 @@
         <v>2478.349091313393</v>
       </c>
       <c r="R12" t="n">
-        <v>2418.564822408339</v>
+        <v>2418.564822408338</v>
       </c>
       <c r="S12" t="n">
         <v>2265.765335421079</v>
       </c>
       <c r="T12" t="n">
-        <v>2077.080231587065</v>
+        <v>2077.080231587064</v>
       </c>
       <c r="U12" t="n">
-        <v>1858.585439185375</v>
+        <v>1858.585439185374</v>
       </c>
       <c r="V12" t="n">
-        <v>1630.189816633709</v>
+        <v>1630.189816633708</v>
       </c>
       <c r="W12" t="n">
-        <v>1388.873947867019</v>
+        <v>1388.873947867018</v>
       </c>
       <c r="X12" t="n">
         <v>1190.956959744813</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.4356333943921</v>
+        <v>998.4356333943916</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>347.2084787095615</v>
+        <v>347.208478709562</v>
       </c>
       <c r="C13" t="n">
-        <v>292.1684339270082</v>
+        <v>292.1684339270087</v>
       </c>
       <c r="D13" t="n">
-        <v>253.6724655105374</v>
+        <v>253.6724655105378</v>
       </c>
       <c r="E13" t="n">
-        <v>216.2393760276226</v>
+        <v>216.2393760276231</v>
       </c>
       <c r="F13" t="n">
-        <v>178.3346458091661</v>
+        <v>178.3346458091664</v>
       </c>
       <c r="G13" t="n">
-        <v>123.9908219327825</v>
+        <v>123.9908219327829</v>
       </c>
       <c r="H13" t="n">
-        <v>79.19410146782275</v>
+        <v>79.19410146782295</v>
       </c>
       <c r="I13" t="n">
         <v>49.56698182626786</v>
@@ -5203,7 +5203,7 @@
         <v>248.9007977391953</v>
       </c>
       <c r="L13" t="n">
-        <v>461.8037409925815</v>
+        <v>461.8037409925814</v>
       </c>
       <c r="M13" t="n">
         <v>692.0931109733099</v>
@@ -5215,34 +5215,34 @@
         <v>1133.570826924853</v>
       </c>
       <c r="P13" t="n">
-        <v>1308.835174506117</v>
+        <v>1308.835174506118</v>
       </c>
       <c r="Q13" t="n">
         <v>1383.360590105725</v>
       </c>
       <c r="R13" t="n">
-        <v>1348.414733475869</v>
+        <v>1348.41473347587</v>
       </c>
       <c r="S13" t="n">
         <v>1249.280895635323</v>
       </c>
       <c r="T13" t="n">
-        <v>1130.677867206768</v>
+        <v>1130.677867206769</v>
       </c>
       <c r="U13" t="n">
-        <v>958.0635524516348</v>
+        <v>958.0635524516351</v>
       </c>
       <c r="V13" t="n">
-        <v>811.9041727658238</v>
+        <v>811.9041727658241</v>
       </c>
       <c r="W13" t="n">
-        <v>640.3236960389893</v>
+        <v>640.3236960389897</v>
       </c>
       <c r="X13" t="n">
-        <v>523.6471566901314</v>
+        <v>523.647156690132</v>
       </c>
       <c r="Y13" t="n">
-        <v>416.1879226381749</v>
+        <v>416.1879226381754</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1248.102443949356</v>
+        <v>927.1569332327387</v>
       </c>
       <c r="C14" t="n">
-        <v>1248.102443949356</v>
+        <v>927.1569332327387</v>
       </c>
       <c r="D14" t="n">
-        <v>989.8544039323466</v>
+        <v>927.1569332327387</v>
       </c>
       <c r="E14" t="n">
-        <v>868.915659197301</v>
+        <v>927.1569332327387</v>
       </c>
       <c r="F14" t="n">
-        <v>569.3403932632377</v>
+        <v>627.5816672986754</v>
       </c>
       <c r="G14" t="n">
-        <v>267.8123314731922</v>
+        <v>326.0536055086297</v>
       </c>
       <c r="H14" t="n">
-        <v>49.56698182626786</v>
+        <v>107.8082558617054</v>
       </c>
       <c r="I14" t="n">
         <v>49.56698182626786</v>
       </c>
       <c r="J14" t="n">
-        <v>154.2714950680565</v>
+        <v>233.8613899522002</v>
       </c>
       <c r="K14" t="n">
-        <v>506.7077309659659</v>
+        <v>483.2464517155528</v>
       </c>
       <c r="L14" t="n">
-        <v>854.5931040509122</v>
+        <v>943.4276886536256</v>
       </c>
       <c r="M14" t="n">
-        <v>1247.832270304</v>
+        <v>1448.96271875984</v>
       </c>
       <c r="N14" t="n">
-        <v>1626.163628991716</v>
+        <v>1827.294077447556</v>
       </c>
       <c r="O14" t="n">
-        <v>2043.464077317676</v>
+        <v>2132.29866192039</v>
       </c>
       <c r="P14" t="n">
-        <v>2271.620973773729</v>
+        <v>2360.455558376443</v>
       </c>
       <c r="Q14" t="n">
-        <v>2478.349091313393</v>
+        <v>2454.88781206298</v>
       </c>
       <c r="R14" t="n">
         <v>2478.349091313393</v>
       </c>
       <c r="S14" t="n">
-        <v>2405.696040699514</v>
+        <v>2405.696040699513</v>
       </c>
       <c r="T14" t="n">
-        <v>2405.696040699514</v>
+        <v>2295.913019186291</v>
       </c>
       <c r="U14" t="n">
-        <v>2265.386629169274</v>
+        <v>2155.603607656051</v>
       </c>
       <c r="V14" t="n">
-        <v>2042.983279820982</v>
+        <v>1933.200258307759</v>
       </c>
       <c r="W14" t="n">
-        <v>1795.024274434349</v>
+        <v>1753.044694386127</v>
       </c>
       <c r="X14" t="n">
-        <v>1527.570058711609</v>
+        <v>1485.590478663387</v>
       </c>
       <c r="Y14" t="n">
-        <v>1527.570058711609</v>
+        <v>1206.624547994991</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>839.0161906131311</v>
+        <v>928.8797423283119</v>
       </c>
       <c r="C15" t="n">
-        <v>677.3125178540859</v>
+        <v>767.1760695692666</v>
       </c>
       <c r="D15" t="n">
-        <v>538.4738808442979</v>
+        <v>628.3374325594787</v>
       </c>
       <c r="E15" t="n">
-        <v>391.4458709011691</v>
+        <v>481.3094226163499</v>
       </c>
       <c r="F15" t="n">
-        <v>256.7520728510435</v>
+        <v>346.6156245662243</v>
       </c>
       <c r="G15" t="n">
-        <v>128.0235728743281</v>
+        <v>217.8871245895088</v>
       </c>
       <c r="H15" t="n">
         <v>117.9492671362069</v>
@@ -5379,28 +5379,28 @@
         <v>2478.349091313393</v>
       </c>
       <c r="R15" t="n">
-        <v>2418.564822408339</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="S15" t="n">
-        <v>2265.765335421079</v>
+        <v>2355.62888713626</v>
       </c>
       <c r="T15" t="n">
-        <v>2077.080231587065</v>
+        <v>2166.943783302245</v>
       </c>
       <c r="U15" t="n">
-        <v>1858.585439185375</v>
+        <v>1948.448990900555</v>
       </c>
       <c r="V15" t="n">
-        <v>1630.189816633709</v>
+        <v>1720.053368348889</v>
       </c>
       <c r="W15" t="n">
-        <v>1388.873947867019</v>
+        <v>1478.737499582199</v>
       </c>
       <c r="X15" t="n">
-        <v>1190.956959744813</v>
+        <v>1280.820511459994</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.4356333943921</v>
+        <v>1088.299185109573</v>
       </c>
     </row>
     <row r="16">
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>347.2084787095616</v>
+        <v>347.2084787095617</v>
       </c>
       <c r="C16" t="n">
-        <v>292.1684339270082</v>
+        <v>292.1684339270084</v>
       </c>
       <c r="D16" t="n">
-        <v>253.6724655105374</v>
+        <v>253.6724655105376</v>
       </c>
       <c r="E16" t="n">
         <v>216.2393760276228</v>
@@ -5434,19 +5434,19 @@
         <v>49.56698182626786</v>
       </c>
       <c r="J16" t="n">
-        <v>103.0007461414252</v>
+        <v>103.0007461414249</v>
       </c>
       <c r="K16" t="n">
-        <v>248.9007977391952</v>
+        <v>248.900797739195</v>
       </c>
       <c r="L16" t="n">
-        <v>461.8037409925814</v>
+        <v>461.8037409925812</v>
       </c>
       <c r="M16" t="n">
-        <v>692.0931109733096</v>
+        <v>692.0931109733094</v>
       </c>
       <c r="N16" t="n">
-        <v>922.8113165760367</v>
+        <v>922.8113165760365</v>
       </c>
       <c r="O16" t="n">
         <v>1133.570826924853</v>
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1325.283684051239</v>
+        <v>1325.283684051238</v>
       </c>
       <c r="C17" t="n">
         <v>1116.16712417525</v>
@@ -5501,7 +5501,7 @@
         <v>694.1918370909882</v>
       </c>
       <c r="F17" t="n">
-        <v>452.8578451923626</v>
+        <v>452.8578451923624</v>
       </c>
       <c r="G17" t="n">
         <v>209.5710574377546</v>
@@ -5513,28 +5513,28 @@
         <v>49.56698182626786</v>
       </c>
       <c r="J17" t="n">
-        <v>290.9436626343326</v>
+        <v>121.5655260990735</v>
       </c>
       <c r="K17" t="n">
-        <v>531.0840346791153</v>
+        <v>481.3777702044151</v>
       </c>
       <c r="L17" t="n">
-        <v>878.9694077640615</v>
+        <v>829.2631432893613</v>
       </c>
       <c r="M17" t="n">
-        <v>1441.586710552408</v>
+        <v>1222.502309542449</v>
       </c>
       <c r="N17" t="n">
-        <v>1819.918069240124</v>
+        <v>1770.211804765424</v>
       </c>
       <c r="O17" t="n">
-        <v>2124.922653712958</v>
+        <v>2075.216389238258</v>
       </c>
       <c r="P17" t="n">
-        <v>2353.079550169011</v>
+        <v>2303.373285694311</v>
       </c>
       <c r="Q17" t="n">
-        <v>2447.511803855548</v>
+        <v>2397.805539380848</v>
       </c>
       <c r="R17" t="n">
         <v>2478.349091313393</v>
@@ -5555,7 +5555,7 @@
         <v>1976.447623098314</v>
       </c>
       <c r="X17" t="n">
-        <v>1767.234681411012</v>
+        <v>1767.234681411011</v>
       </c>
       <c r="Y17" t="n">
         <v>1546.510024778054</v>
@@ -5592,40 +5592,40 @@
         <v>49.56698182626786</v>
       </c>
       <c r="J18" t="n">
-        <v>109.821128359374</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="K18" t="n">
-        <v>339.3116809195627</v>
+        <v>279.0575343864565</v>
       </c>
       <c r="L18" t="n">
-        <v>705.1335260896783</v>
+        <v>644.8793795565721</v>
       </c>
       <c r="M18" t="n">
-        <v>1190.166879599905</v>
+        <v>1129.912733066798</v>
       </c>
       <c r="N18" t="n">
-        <v>1701.432525723027</v>
+        <v>1641.178379189921</v>
       </c>
       <c r="O18" t="n">
-        <v>2093.632476507178</v>
+        <v>2033.378329974071</v>
       </c>
       <c r="P18" t="n">
-        <v>2320.577461527799</v>
+        <v>2335.474249249769</v>
       </c>
       <c r="Q18" t="n">
         <v>2478.349091313393</v>
       </c>
       <c r="R18" t="n">
-        <v>2418.564822408339</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="S18" t="n">
-        <v>2265.765335421079</v>
+        <v>2355.62888713626</v>
       </c>
       <c r="T18" t="n">
-        <v>2077.080231587065</v>
+        <v>2166.943783302245</v>
       </c>
       <c r="U18" t="n">
-        <v>1858.585439185375</v>
+        <v>1948.448990900555</v>
       </c>
       <c r="V18" t="n">
         <v>1720.053368348889</v>
@@ -5668,31 +5668,31 @@
         <v>49.56698182626786</v>
       </c>
       <c r="I19" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J19" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="K19" t="n">
-        <v>86.38798680778594</v>
+        <v>83.17116957091127</v>
       </c>
       <c r="L19" t="n">
-        <v>186.9950662080454</v>
+        <v>183.7782489711708</v>
       </c>
       <c r="M19" t="n">
-        <v>304.9885723356472</v>
+        <v>301.7717550987725</v>
       </c>
       <c r="N19" t="n">
-        <v>423.4109140852476</v>
+        <v>420.1940968483729</v>
       </c>
       <c r="O19" t="n">
-        <v>521.8745605809372</v>
+        <v>518.6577433440626</v>
       </c>
       <c r="P19" t="n">
-        <v>584.843044309075</v>
+        <v>581.6262270722004</v>
       </c>
       <c r="Q19" t="n">
-        <v>584.843044309075</v>
+        <v>581.6262270722004</v>
       </c>
       <c r="R19" t="n">
         <v>584.843044309075</v>
@@ -5716,7 +5716,7 @@
         <v>109.5231117359626</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.3051517194437</v>
+        <v>60.30515171944369</v>
       </c>
     </row>
     <row r="20">
@@ -5759,19 +5759,19 @@
         <v>878.9694077640615</v>
       </c>
       <c r="M20" t="n">
-        <v>1272.208574017149</v>
+        <v>1441.586710552408</v>
       </c>
       <c r="N20" t="n">
-        <v>1681.37722016271</v>
+        <v>1819.918069240124</v>
       </c>
       <c r="O20" t="n">
-        <v>1986.381804635544</v>
+        <v>2124.922653712958</v>
       </c>
       <c r="P20" t="n">
-        <v>2383.916837626856</v>
+        <v>2353.079550169011</v>
       </c>
       <c r="Q20" t="n">
-        <v>2478.349091313393</v>
+        <v>2447.511803855548</v>
       </c>
       <c r="R20" t="n">
         <v>2478.349091313393</v>
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>839.0161906131311</v>
+        <v>839.0161906131307</v>
       </c>
       <c r="C21" t="n">
-        <v>677.3125178540859</v>
+        <v>677.3125178540854</v>
       </c>
       <c r="D21" t="n">
-        <v>538.4738808442979</v>
+        <v>538.4738808442975</v>
       </c>
       <c r="E21" t="n">
-        <v>391.4458709011691</v>
+        <v>391.4458709011687</v>
       </c>
       <c r="F21" t="n">
-        <v>256.7520728510435</v>
+        <v>256.7520728510431</v>
       </c>
       <c r="G21" t="n">
-        <v>217.8871245895088</v>
+        <v>128.0235728743276</v>
       </c>
       <c r="H21" t="n">
         <v>117.9492671362069</v>
@@ -5835,7 +5835,7 @@
         <v>339.3116809195627</v>
       </c>
       <c r="L21" t="n">
-        <v>629.9825918346027</v>
+        <v>705.1335260896783</v>
       </c>
       <c r="M21" t="n">
         <v>1115.015945344829</v>
@@ -5844,7 +5844,7 @@
         <v>1626.281591467951</v>
       </c>
       <c r="O21" t="n">
-        <v>2018.481542252102</v>
+        <v>2018.481542252101</v>
       </c>
       <c r="P21" t="n">
         <v>2320.577461527799</v>
@@ -5853,28 +5853,28 @@
         <v>2478.349091313393</v>
       </c>
       <c r="R21" t="n">
-        <v>2418.564822408339</v>
+        <v>2418.564822408338</v>
       </c>
       <c r="S21" t="n">
         <v>2265.765335421079</v>
       </c>
       <c r="T21" t="n">
-        <v>2077.080231587065</v>
+        <v>2077.080231587064</v>
       </c>
       <c r="U21" t="n">
-        <v>1858.585439185375</v>
+        <v>1858.585439185374</v>
       </c>
       <c r="V21" t="n">
-        <v>1630.189816633709</v>
+        <v>1630.189816633708</v>
       </c>
       <c r="W21" t="n">
-        <v>1388.873947867019</v>
+        <v>1388.873947867018</v>
       </c>
       <c r="X21" t="n">
         <v>1190.956959744813</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.4356333943921</v>
+        <v>998.4356333943916</v>
       </c>
     </row>
     <row r="22">
@@ -5902,10 +5902,10 @@
         <v>49.56698182626786</v>
       </c>
       <c r="H22" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I22" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J22" t="n">
         <v>52.78379906314252</v>
@@ -5953,7 +5953,7 @@
         <v>109.5231117359626</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.3051517194437</v>
+        <v>60.30515171944369</v>
       </c>
     </row>
     <row r="23">
@@ -5969,49 +5969,49 @@
         <v>1116.167124175249</v>
       </c>
       <c r="D23" t="n">
-        <v>916.1603581936769</v>
+        <v>916.1603581936773</v>
       </c>
       <c r="E23" t="n">
-        <v>694.1918370909877</v>
+        <v>694.1918370909882</v>
       </c>
       <c r="F23" t="n">
-        <v>452.8578451923624</v>
+        <v>452.8578451923625</v>
       </c>
       <c r="G23" t="n">
-        <v>209.5710574377546</v>
+        <v>209.5710574377545</v>
       </c>
       <c r="H23" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="I23" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="J23" t="n">
         <v>121.5655260990735</v>
       </c>
       <c r="K23" t="n">
-        <v>392.5431856017009</v>
+        <v>361.7058981438563</v>
       </c>
       <c r="L23" t="n">
-        <v>740.4285586866472</v>
+        <v>709.5912712288025</v>
       </c>
       <c r="M23" t="n">
-        <v>1133.667724939735</v>
+        <v>1102.83043748189</v>
       </c>
       <c r="N23" t="n">
-        <v>1511.999083627451</v>
+        <v>1650.539932704865</v>
       </c>
       <c r="O23" t="n">
-        <v>1986.381804635544</v>
+        <v>2124.922653712958</v>
       </c>
       <c r="P23" t="n">
-        <v>2214.538701091597</v>
+        <v>2353.079550169011</v>
       </c>
       <c r="Q23" t="n">
-        <v>2478.349091313393</v>
+        <v>2447.511803855548</v>
       </c>
       <c r="R23" t="n">
-        <v>2478.349091313393</v>
+        <v>2478.349091313392</v>
       </c>
       <c r="S23" t="n">
         <v>2463.937314734951</v>
@@ -6020,7 +6020,7 @@
         <v>2412.395567257166</v>
       </c>
       <c r="U23" t="n">
-        <v>2330.327429762364</v>
+        <v>2330.327429762363</v>
       </c>
       <c r="V23" t="n">
         <v>2166.165354449509</v>
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>839.0161906131307</v>
+        <v>839.0161906131302</v>
       </c>
       <c r="C24" t="n">
-        <v>677.3125178540854</v>
+        <v>677.3125178540849</v>
       </c>
       <c r="D24" t="n">
-        <v>538.4738808442975</v>
+        <v>538.473880844297</v>
       </c>
       <c r="E24" t="n">
-        <v>481.3094226163499</v>
+        <v>391.4458709011682</v>
       </c>
       <c r="F24" t="n">
-        <v>346.6156245662243</v>
+        <v>256.7520728510426</v>
       </c>
       <c r="G24" t="n">
         <v>217.8871245895088</v>
@@ -6063,37 +6063,37 @@
         <v>117.9492671362069</v>
       </c>
       <c r="I24" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="J24" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="K24" t="n">
-        <v>279.0575343864565</v>
+        <v>264.1607466644861</v>
       </c>
       <c r="L24" t="n">
-        <v>629.9825918346022</v>
+        <v>629.9825918346017</v>
       </c>
       <c r="M24" t="n">
-        <v>1115.015945344829</v>
+        <v>1115.015945344828</v>
       </c>
       <c r="N24" t="n">
-        <v>1626.281591467951</v>
+        <v>1626.28159146795</v>
       </c>
       <c r="O24" t="n">
         <v>2018.481542252101</v>
       </c>
       <c r="P24" t="n">
-        <v>2320.577461527799</v>
+        <v>2320.577461527798</v>
       </c>
       <c r="Q24" t="n">
-        <v>2478.349091313393</v>
+        <v>2478.349091313392</v>
       </c>
       <c r="R24" t="n">
         <v>2418.564822408338</v>
       </c>
       <c r="S24" t="n">
-        <v>2265.765335421079</v>
+        <v>2265.765335421078</v>
       </c>
       <c r="T24" t="n">
         <v>2077.080231587064</v>
@@ -6108,10 +6108,10 @@
         <v>1388.873947867018</v>
       </c>
       <c r="X24" t="n">
-        <v>1190.956959744813</v>
+        <v>1190.956959744812</v>
       </c>
       <c r="Y24" t="n">
-        <v>998.4356333943916</v>
+        <v>998.4356333943912</v>
       </c>
     </row>
     <row r="25">
@@ -6121,70 +6121,70 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.56698182626786</v>
+        <v>49.56698182626785</v>
       </c>
       <c r="C25" t="n">
-        <v>49.56698182626786</v>
+        <v>52.70450661701974</v>
       </c>
       <c r="D25" t="n">
-        <v>49.56698182626786</v>
+        <v>52.70450661701974</v>
       </c>
       <c r="E25" t="n">
-        <v>49.56698182626786</v>
+        <v>52.70450661701974</v>
       </c>
       <c r="F25" t="n">
-        <v>49.56698182626786</v>
+        <v>52.70450661701974</v>
       </c>
       <c r="G25" t="n">
-        <v>49.56698182626786</v>
+        <v>52.70450661701974</v>
       </c>
       <c r="H25" t="n">
-        <v>49.56698182626786</v>
+        <v>52.70450661701974</v>
       </c>
       <c r="I25" t="n">
-        <v>52.78379906314252</v>
+        <v>52.70450661701974</v>
       </c>
       <c r="J25" t="n">
-        <v>52.78379906314252</v>
+        <v>52.70450661701974</v>
       </c>
       <c r="K25" t="n">
-        <v>86.38798680778594</v>
+        <v>86.30869436166316</v>
       </c>
       <c r="L25" t="n">
-        <v>186.9950662080454</v>
+        <v>186.9157737619227</v>
       </c>
       <c r="M25" t="n">
-        <v>304.9885723356472</v>
+        <v>304.9092798895244</v>
       </c>
       <c r="N25" t="n">
-        <v>423.4109140852476</v>
+        <v>423.3316216391248</v>
       </c>
       <c r="O25" t="n">
-        <v>521.8745605809372</v>
+        <v>521.7952681348145</v>
       </c>
       <c r="P25" t="n">
-        <v>584.843044309075</v>
+        <v>584.7637518629523</v>
       </c>
       <c r="Q25" t="n">
-        <v>584.843044309075</v>
+        <v>584.7637518629523</v>
       </c>
       <c r="R25" t="n">
-        <v>584.843044309075</v>
+        <v>584.8430443090749</v>
       </c>
       <c r="S25" t="n">
-        <v>543.9504805039666</v>
+        <v>543.9504805039664</v>
       </c>
       <c r="T25" t="n">
-        <v>483.5887261108493</v>
+        <v>483.5887261108492</v>
       </c>
       <c r="U25" t="n">
-        <v>369.2156853911532</v>
+        <v>369.2156853911531</v>
       </c>
       <c r="V25" t="n">
-        <v>281.2975797407798</v>
+        <v>281.2975797407797</v>
       </c>
       <c r="W25" t="n">
-        <v>167.9583770493829</v>
+        <v>167.9583770493828</v>
       </c>
       <c r="X25" t="n">
         <v>109.5231117359626</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1525.96236406209</v>
+        <v>1744.207713709014</v>
       </c>
       <c r="C26" t="n">
-        <v>1258.604530150663</v>
+        <v>1476.849879797588</v>
       </c>
       <c r="D26" t="n">
-        <v>1000.356490133653</v>
+        <v>1218.601839780578</v>
       </c>
       <c r="E26" t="n">
-        <v>720.1466949955266</v>
+        <v>938.3920446424509</v>
       </c>
       <c r="F26" t="n">
-        <v>420.5714290614633</v>
+        <v>638.8167787083876</v>
       </c>
       <c r="G26" t="n">
-        <v>119.0433672714176</v>
+        <v>337.2887169183419</v>
       </c>
       <c r="H26" t="n">
         <v>119.0433672714176</v>
       </c>
       <c r="I26" t="n">
-        <v>60.80209323598003</v>
+        <v>60.80209323597998</v>
       </c>
       <c r="J26" t="n">
-        <v>245.0965013619123</v>
+        <v>243.3823308907426</v>
       </c>
       <c r="K26" t="n">
-        <v>597.5327372598217</v>
+        <v>595.818566788652</v>
       </c>
       <c r="L26" t="n">
-        <v>1057.713974197894</v>
+        <v>1055.999803726725</v>
       </c>
       <c r="M26" t="n">
-        <v>1563.249004304109</v>
+        <v>1561.53483383294</v>
       </c>
       <c r="N26" t="n">
-        <v>2053.876226844951</v>
+        <v>2052.162056373782</v>
       </c>
       <c r="O26" t="n">
-        <v>2471.176675170912</v>
+        <v>2469.462504699743</v>
       </c>
       <c r="P26" t="n">
-        <v>2811.629435480092</v>
+        <v>2809.915265008923</v>
       </c>
       <c r="Q26" t="n">
-        <v>3016.643382548589</v>
+        <v>3016.643382548586</v>
       </c>
       <c r="R26" t="n">
-        <v>3040.104661799001</v>
+        <v>3040.104661798999</v>
       </c>
       <c r="S26" t="n">
-        <v>2967.451611185122</v>
+        <v>2967.451611185119</v>
       </c>
       <c r="T26" t="n">
-        <v>2857.668589671899</v>
+        <v>2857.668589671897</v>
       </c>
       <c r="U26" t="n">
-        <v>2717.359178141659</v>
+        <v>2717.359178141657</v>
       </c>
       <c r="V26" t="n">
-        <v>2599.809130602111</v>
+        <v>2494.955828793365</v>
       </c>
       <c r="W26" t="n">
-        <v>2351.850125215478</v>
+        <v>2246.996823406732</v>
       </c>
       <c r="X26" t="n">
-        <v>2084.395909492738</v>
+        <v>1979.542607683993</v>
       </c>
       <c r="Y26" t="n">
-        <v>1805.429978824342</v>
+        <v>1979.542607683993</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>940.1148537380242</v>
+        <v>940.114853738024</v>
       </c>
       <c r="C27" t="n">
-        <v>778.4111809789789</v>
+        <v>778.4111809789787</v>
       </c>
       <c r="D27" t="n">
-        <v>639.572543969191</v>
+        <v>639.5725439691907</v>
       </c>
       <c r="E27" t="n">
-        <v>492.5445340260621</v>
+        <v>492.544534026062</v>
       </c>
       <c r="F27" t="n">
-        <v>357.8507359759365</v>
+        <v>357.8507359759363</v>
       </c>
       <c r="G27" t="n">
-        <v>229.122235999221</v>
+        <v>229.1222359992209</v>
       </c>
       <c r="H27" t="n">
         <v>129.184378545919</v>
       </c>
       <c r="I27" t="n">
-        <v>60.80209323598003</v>
+        <v>60.80209323597998</v>
       </c>
       <c r="J27" t="n">
-        <v>121.0562397690862</v>
+        <v>121.0562397690861</v>
       </c>
       <c r="K27" t="n">
         <v>350.5467923292748</v>
@@ -6327,22 +6327,22 @@
         <v>2564.735136978181</v>
       </c>
       <c r="R27" t="n">
-        <v>2504.950868073127</v>
+        <v>2519.663485533231</v>
       </c>
       <c r="S27" t="n">
-        <v>2352.151381085867</v>
+        <v>2366.863998545972</v>
       </c>
       <c r="T27" t="n">
-        <v>2163.466277251853</v>
+        <v>2178.178894711957</v>
       </c>
       <c r="U27" t="n">
-        <v>1944.971484850163</v>
+        <v>1959.684102310267</v>
       </c>
       <c r="V27" t="n">
-        <v>1731.288479758602</v>
+        <v>1731.288479758601</v>
       </c>
       <c r="W27" t="n">
-        <v>1489.972610991912</v>
+        <v>1489.972610991911</v>
       </c>
       <c r="X27" t="n">
         <v>1292.055622869706</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>358.4435901192738</v>
+        <v>358.4435901192739</v>
       </c>
       <c r="C28" t="n">
-        <v>303.4035453367205</v>
+        <v>303.4035453367207</v>
       </c>
       <c r="D28" t="n">
         <v>264.9075769202498</v>
@@ -6379,22 +6379,22 @@
         <v>90.42921287753506</v>
       </c>
       <c r="I28" t="n">
-        <v>60.80209323598003</v>
+        <v>60.80209323597998</v>
       </c>
       <c r="J28" t="n">
-        <v>114.2358575511374</v>
+        <v>114.2358575511373</v>
       </c>
       <c r="K28" t="n">
         <v>260.1359091489074</v>
       </c>
       <c r="L28" t="n">
-        <v>473.0388524022933</v>
+        <v>473.0388524022935</v>
       </c>
       <c r="M28" t="n">
-        <v>703.328222383022</v>
+        <v>703.3282223830217</v>
       </c>
       <c r="N28" t="n">
-        <v>934.046427985749</v>
+        <v>934.0464279857488</v>
       </c>
       <c r="O28" t="n">
         <v>1144.805938334565</v>
@@ -6415,13 +6415,13 @@
         <v>1141.912978616481</v>
       </c>
       <c r="U28" t="n">
-        <v>969.2986638613471</v>
+        <v>969.2986638613472</v>
       </c>
       <c r="V28" t="n">
-        <v>823.1392841755361</v>
+        <v>823.1392841755362</v>
       </c>
       <c r="W28" t="n">
-        <v>651.5588074487016</v>
+        <v>651.5588074487017</v>
       </c>
       <c r="X28" t="n">
         <v>534.8822680998437</v>
@@ -6440,25 +6440,25 @@
         <v>1744.207713709014</v>
       </c>
       <c r="C29" t="n">
-        <v>1476.849879797588</v>
+        <v>1476.849879797587</v>
       </c>
       <c r="D29" t="n">
-        <v>1218.601839780577</v>
+        <v>1218.601839780578</v>
       </c>
       <c r="E29" t="n">
-        <v>938.3920446424507</v>
+        <v>938.3920446424509</v>
       </c>
       <c r="F29" t="n">
-        <v>638.8167787083875</v>
+        <v>638.8167787083876</v>
       </c>
       <c r="G29" t="n">
-        <v>337.2887169183418</v>
+        <v>337.2887169183419</v>
       </c>
       <c r="H29" t="n">
         <v>119.0433672714176</v>
       </c>
       <c r="I29" t="n">
-        <v>60.80209323598003</v>
+        <v>60.80209323597997</v>
       </c>
       <c r="J29" t="n">
         <v>245.0965013619123</v>
@@ -6476,37 +6476,37 @@
         <v>2053.876226844951</v>
       </c>
       <c r="O29" t="n">
-        <v>2469.462504699745</v>
+        <v>2471.176675170912</v>
       </c>
       <c r="P29" t="n">
-        <v>2809.915265008925</v>
+        <v>2811.629435480092</v>
       </c>
       <c r="Q29" t="n">
-        <v>3016.643382548589</v>
+        <v>3018.357553019756</v>
       </c>
       <c r="R29" t="n">
-        <v>3040.104661799001</v>
+        <v>3040.104661798999</v>
       </c>
       <c r="S29" t="n">
-        <v>2967.451611185122</v>
+        <v>3040.104661798999</v>
       </c>
       <c r="T29" t="n">
-        <v>2967.451611185122</v>
+        <v>2930.321640285776</v>
       </c>
       <c r="U29" t="n">
-        <v>2827.142199654882</v>
+        <v>2790.012228755536</v>
       </c>
       <c r="V29" t="n">
-        <v>2604.73885030659</v>
+        <v>2570.095474862402</v>
       </c>
       <c r="W29" t="n">
-        <v>2356.779844919958</v>
+        <v>2570.095474862402</v>
       </c>
       <c r="X29" t="n">
-        <v>2089.325629197217</v>
+        <v>2302.641259139662</v>
       </c>
       <c r="Y29" t="n">
-        <v>1810.359698528822</v>
+        <v>2023.675328471266</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>925.4022362779194</v>
+        <v>940.114853738024</v>
       </c>
       <c r="C30" t="n">
-        <v>763.6985635188742</v>
+        <v>778.4111809789787</v>
       </c>
       <c r="D30" t="n">
-        <v>624.8599265090862</v>
+        <v>639.5725439691907</v>
       </c>
       <c r="E30" t="n">
-        <v>477.8319165659574</v>
+        <v>492.544534026062</v>
       </c>
       <c r="F30" t="n">
-        <v>343.1381185158318</v>
+        <v>357.8507359759363</v>
       </c>
       <c r="G30" t="n">
-        <v>214.4096185391164</v>
+        <v>229.1222359992209</v>
       </c>
       <c r="H30" t="n">
         <v>129.184378545919</v>
       </c>
       <c r="I30" t="n">
-        <v>60.80209323598003</v>
+        <v>60.80209323597997</v>
       </c>
       <c r="J30" t="n">
-        <v>121.0562397690862</v>
+        <v>121.0562397690861</v>
       </c>
       <c r="K30" t="n">
         <v>350.5467923292748</v>
@@ -6567,25 +6567,25 @@
         <v>2504.950868073127</v>
       </c>
       <c r="S30" t="n">
-        <v>2352.151381085867</v>
+        <v>2366.863998545972</v>
       </c>
       <c r="T30" t="n">
-        <v>2163.466277251853</v>
+        <v>2178.178894711957</v>
       </c>
       <c r="U30" t="n">
-        <v>1944.971484850163</v>
+        <v>1959.684102310267</v>
       </c>
       <c r="V30" t="n">
-        <v>1716.575862298497</v>
+        <v>1731.288479758601</v>
       </c>
       <c r="W30" t="n">
-        <v>1475.259993531807</v>
+        <v>1489.972610991911</v>
       </c>
       <c r="X30" t="n">
-        <v>1277.343005409601</v>
+        <v>1292.055622869706</v>
       </c>
       <c r="Y30" t="n">
-        <v>1084.82167905918</v>
+        <v>1099.534296519285</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>358.4435901192735</v>
+        <v>358.4435901192739</v>
       </c>
       <c r="C31" t="n">
-        <v>303.4035453367205</v>
+        <v>303.4035453367206</v>
       </c>
       <c r="D31" t="n">
-        <v>264.9075769202497</v>
+        <v>264.9075769202498</v>
       </c>
       <c r="E31" t="n">
-        <v>227.4744874373349</v>
+        <v>227.474487437335</v>
       </c>
       <c r="F31" t="n">
-        <v>189.5697572188786</v>
+        <v>189.5697572188785</v>
       </c>
       <c r="G31" t="n">
         <v>135.2259333424949</v>
       </c>
       <c r="H31" t="n">
-        <v>90.42921287753515</v>
+        <v>90.42921287753506</v>
       </c>
       <c r="I31" t="n">
-        <v>60.80209323598003</v>
+        <v>60.80209323597997</v>
       </c>
       <c r="J31" t="n">
         <v>114.2358575511371</v>
@@ -6652,19 +6652,19 @@
         <v>1141.912978616481</v>
       </c>
       <c r="U31" t="n">
-        <v>969.298663861347</v>
+        <v>969.2986638613471</v>
       </c>
       <c r="V31" t="n">
-        <v>823.139284175536</v>
+        <v>823.1392841755361</v>
       </c>
       <c r="W31" t="n">
-        <v>651.5588074487015</v>
+        <v>651.5588074487016</v>
       </c>
       <c r="X31" t="n">
-        <v>534.8822680998436</v>
+        <v>534.8822680998437</v>
       </c>
       <c r="Y31" t="n">
-        <v>427.4230340478871</v>
+        <v>427.4230340478873</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1541.907533211064</v>
+        <v>1541.907533211063</v>
       </c>
       <c r="C32" t="n">
-        <v>1303.141340349513</v>
+        <v>1303.141340349512</v>
       </c>
       <c r="D32" t="n">
         <v>1073.484941382377</v>
@@ -6692,37 +6692,37 @@
         <v>277.9467416697667</v>
       </c>
       <c r="H32" t="n">
-        <v>88.29303307271695</v>
+        <v>88.29303307271692</v>
       </c>
       <c r="I32" t="n">
-        <v>58.64340008715438</v>
+        <v>58.64340008715437</v>
       </c>
       <c r="J32" t="n">
         <v>270.9604756060692</v>
       </c>
       <c r="K32" t="n">
-        <v>651.419378896961</v>
+        <v>651.4193788969612</v>
       </c>
       <c r="L32" t="n">
-        <v>1139.623283228016</v>
+        <v>1060.566204419768</v>
       </c>
       <c r="M32" t="n">
-        <v>1645.607848562361</v>
+        <v>1594.123901918965</v>
       </c>
       <c r="N32" t="n">
-        <v>2164.257738496186</v>
+        <v>2112.77379185279</v>
       </c>
       <c r="O32" t="n">
-        <v>2469.262322969019</v>
+        <v>2558.096907571733</v>
       </c>
       <c r="P32" t="n">
-        <v>2697.419219425073</v>
+        <v>2786.253804027786</v>
       </c>
       <c r="Q32" t="n">
-        <v>2932.170004357719</v>
+        <v>2880.686057714323</v>
       </c>
       <c r="R32" t="n">
-        <v>2932.170004357719</v>
+        <v>2932.170004357718</v>
       </c>
       <c r="S32" t="n">
         <v>2888.108594793714</v>
@@ -6740,10 +6740,10 @@
         <v>2282.020371214827</v>
       </c>
       <c r="X32" t="n">
-        <v>2043.157796541962</v>
+        <v>2043.157796541961</v>
       </c>
       <c r="Y32" t="n">
-        <v>1792.783506923442</v>
+        <v>1792.783506923441</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>923.243543129094</v>
+        <v>937.9561605891985</v>
       </c>
       <c r="C33" t="n">
-        <v>761.5398703700487</v>
+        <v>776.2524878301532</v>
       </c>
       <c r="D33" t="n">
-        <v>622.7012333602607</v>
+        <v>637.4138508203653</v>
       </c>
       <c r="E33" t="n">
-        <v>475.673223417132</v>
+        <v>490.3858408772364</v>
       </c>
       <c r="F33" t="n">
         <v>355.6920428271108</v>
@@ -6774,7 +6774,7 @@
         <v>127.0256853970934</v>
       </c>
       <c r="I33" t="n">
-        <v>58.64340008715438</v>
+        <v>58.64340008715437</v>
       </c>
       <c r="J33" t="n">
         <v>118.8975466202605</v>
@@ -6783,7 +6783,7 @@
         <v>348.3880991804492</v>
       </c>
       <c r="L33" t="n">
-        <v>714.2099443505649</v>
+        <v>714.2099443505648</v>
       </c>
       <c r="M33" t="n">
         <v>1199.243297860791</v>
@@ -6801,28 +6801,28 @@
         <v>2562.576443829356</v>
       </c>
       <c r="R33" t="n">
-        <v>2502.792174924301</v>
+        <v>2517.504792384406</v>
       </c>
       <c r="S33" t="n">
-        <v>2349.992687937042</v>
+        <v>2364.705305397146</v>
       </c>
       <c r="T33" t="n">
-        <v>2161.307584103027</v>
+        <v>2176.020201563132</v>
       </c>
       <c r="U33" t="n">
-        <v>1942.812791701337</v>
+        <v>1957.525409161442</v>
       </c>
       <c r="V33" t="n">
-        <v>1714.417169149671</v>
+        <v>1729.129786609776</v>
       </c>
       <c r="W33" t="n">
-        <v>1473.101300382981</v>
+        <v>1487.813917843086</v>
       </c>
       <c r="X33" t="n">
-        <v>1275.184312260776</v>
+        <v>1289.896929720881</v>
       </c>
       <c r="Y33" t="n">
-        <v>1082.662985910355</v>
+        <v>1097.375603370459</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.1434096213231</v>
+        <v>156.1434096213229</v>
       </c>
       <c r="C34" t="n">
-        <v>129.6950058886448</v>
+        <v>129.6950058886447</v>
       </c>
       <c r="D34" t="n">
-        <v>119.790678522049</v>
+        <v>119.7906785220488</v>
       </c>
       <c r="E34" t="n">
-        <v>110.9492300890092</v>
+        <v>110.9492300890091</v>
       </c>
       <c r="F34" t="n">
-        <v>101.6361409204278</v>
+        <v>101.6361409204277</v>
       </c>
       <c r="G34" t="n">
-        <v>75.88395809391919</v>
+        <v>75.88395809391913</v>
       </c>
       <c r="H34" t="n">
-        <v>59.67887867883444</v>
+        <v>59.6788786788344</v>
       </c>
       <c r="I34" t="n">
-        <v>58.64340008715438</v>
+        <v>58.64340008715437</v>
       </c>
       <c r="J34" t="n">
-        <v>140.0998317952942</v>
+        <v>58.64340008715437</v>
       </c>
       <c r="K34" t="n">
-        <v>314.0225507860467</v>
+        <v>92.24758783179777</v>
       </c>
       <c r="L34" t="n">
-        <v>414.6296301863063</v>
+        <v>192.8546672320573</v>
       </c>
       <c r="M34" t="n">
-        <v>532.6231363139079</v>
+        <v>310.848173359659</v>
       </c>
       <c r="N34" t="n">
-        <v>651.0454780635083</v>
+        <v>429.2705151092594</v>
       </c>
       <c r="O34" t="n">
-        <v>769.4541848478835</v>
+        <v>629.1356536017738</v>
       </c>
       <c r="P34" t="n">
-        <v>832.4226685760214</v>
+        <v>832.4226685760208</v>
       </c>
       <c r="Q34" t="n">
-        <v>934.9707515686111</v>
+        <v>934.9707515686106</v>
       </c>
       <c r="R34" t="n">
-        <v>928.6165359886307</v>
+        <v>928.6165359886303</v>
       </c>
       <c r="S34" t="n">
-        <v>858.0743391979597</v>
+        <v>858.0743391979593</v>
       </c>
       <c r="T34" t="n">
-        <v>768.06295181928</v>
+        <v>768.0629518192795</v>
       </c>
       <c r="U34" t="n">
-        <v>624.0402781140212</v>
+        <v>624.0402781140209</v>
       </c>
       <c r="V34" t="n">
-        <v>506.4725394780853</v>
+        <v>506.472539478085</v>
       </c>
       <c r="W34" t="n">
-        <v>363.4837038011258</v>
+        <v>363.4837038011256</v>
       </c>
       <c r="X34" t="n">
-        <v>275.398805502143</v>
+        <v>275.3988055021427</v>
       </c>
       <c r="Y34" t="n">
-        <v>196.5312125000615</v>
+        <v>196.5312125000613</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J35" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K35" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L35" t="n">
-        <v>875.5927382556528</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M35" t="n">
-        <v>1433.299678999773</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N35" t="n">
-        <v>1811.631037687489</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O35" t="n">
-        <v>2116.635622160323</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P35" t="n">
-        <v>2384.968274529432</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q35" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R35" t="n">
         <v>2555.033718104287</v>
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C36" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D36" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E36" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F36" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G36" t="n">
         <v>219.4208171253267</v>
@@ -7038,28 +7038,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S36" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T36" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U36" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V36" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W36" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X36" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y36" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="37">
@@ -7087,34 +7087,34 @@
         <v>51.10067436208574</v>
       </c>
       <c r="H37" t="n">
-        <v>59.36731927228439</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I37" t="n">
-        <v>59.36731927228439</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J37" t="n">
-        <v>59.36731927228439</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K37" t="n">
-        <v>92.9715070169278</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L37" t="n">
-        <v>231.5307021686421</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M37" t="n">
-        <v>349.5242082962438</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N37" t="n">
-        <v>467.9465500458442</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O37" t="n">
-        <v>566.4101965415339</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P37" t="n">
-        <v>629.3786802696717</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q37" t="n">
-        <v>629.3786802696717</v>
+        <v>611.4572037146872</v>
       </c>
       <c r="R37" t="n">
         <v>629.3786802696717</v>
@@ -7172,28 +7172,28 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J38" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K38" t="n">
-        <v>363.2395906796742</v>
+        <v>692.175139661739</v>
       </c>
       <c r="L38" t="n">
-        <v>711.1249637646204</v>
+        <v>1080.236268659741</v>
       </c>
       <c r="M38" t="n">
-        <v>1104.364130017708</v>
+        <v>1473.475434912829</v>
       </c>
       <c r="N38" t="n">
-        <v>1598.504434506798</v>
+        <v>1851.806793600545</v>
       </c>
       <c r="O38" t="n">
-        <v>1903.509018979632</v>
+        <v>2156.811378073378</v>
       </c>
       <c r="P38" t="n">
-        <v>2296.133689926718</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q38" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7251,7 +7251,7 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J39" t="n">
-        <v>111.3548208951919</v>
+        <v>111.354820895192</v>
       </c>
       <c r="K39" t="n">
         <v>340.8453734553806</v>
@@ -7275,22 +7275,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2495.249449199232</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S39" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T39" t="n">
-        <v>2153.764858377958</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U39" t="n">
-        <v>1935.270065976268</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V39" t="n">
-        <v>1706.874443424602</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W39" t="n">
-        <v>1465.558574657912</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X39" t="n">
         <v>1282.354203995812</v>
@@ -7324,34 +7324,34 @@
         <v>51.10067436208574</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208574</v>
+        <v>59.36731927228439</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208574</v>
+        <v>59.36731927228439</v>
       </c>
       <c r="J40" t="n">
-        <v>51.10067436208574</v>
+        <v>59.36731927228439</v>
       </c>
       <c r="K40" t="n">
-        <v>84.70486210672915</v>
+        <v>92.9715070169278</v>
       </c>
       <c r="L40" t="n">
-        <v>213.6092256136577</v>
+        <v>193.5785864171873</v>
       </c>
       <c r="M40" t="n">
-        <v>331.6027317412594</v>
+        <v>311.572092544789</v>
       </c>
       <c r="N40" t="n">
-        <v>450.0250734908598</v>
+        <v>429.9944342943894</v>
       </c>
       <c r="O40" t="n">
-        <v>548.4887199865494</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P40" t="n">
-        <v>611.4572037146872</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q40" t="n">
-        <v>611.4572037146872</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R40" t="n">
         <v>629.3786802696717</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1401.281595776339</v>
+        <v>1401.281595776338</v>
       </c>
       <c r="C41" t="n">
-        <v>1181.527290301882</v>
+        <v>1181.52729030188</v>
       </c>
       <c r="D41" t="n">
-        <v>970.8827787218402</v>
+        <v>970.8827787218389</v>
       </c>
       <c r="E41" t="n">
-        <v>738.276512020682</v>
+        <v>738.276512020681</v>
       </c>
       <c r="F41" t="n">
-        <v>486.3047745235874</v>
+        <v>486.3047745235866</v>
       </c>
       <c r="G41" t="n">
-        <v>232.3802411705104</v>
+        <v>232.3802411705099</v>
       </c>
       <c r="H41" t="n">
-        <v>61.73841996055469</v>
+        <v>61.73841996055444</v>
       </c>
       <c r="I41" t="n">
         <v>51.10067436208573</v>
@@ -7412,22 +7412,22 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K41" t="n">
-        <v>419.9624238432284</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>767.8477969281746</v>
+        <v>767.8477969281732</v>
       </c>
       <c r="M41" t="n">
-        <v>1161.086963181262</v>
+        <v>1320.039045255461</v>
       </c>
       <c r="N41" t="n">
-        <v>1539.418321868978</v>
+        <v>1698.370403943177</v>
       </c>
       <c r="O41" t="n">
-        <v>1844.422906341812</v>
+        <v>2003.374988416011</v>
       </c>
       <c r="P41" t="n">
-        <v>2231.531884872065</v>
+        <v>2231.531884872064</v>
       </c>
       <c r="Q41" t="n">
         <v>2484.916220632801</v>
@@ -7439,22 +7439,22 @@
         <v>2529.984195927376</v>
       </c>
       <c r="T41" t="n">
-        <v>2467.804702851122</v>
+        <v>2467.804702851123</v>
       </c>
       <c r="U41" t="n">
-        <v>2375.098819757851</v>
+        <v>2459.514069479806</v>
       </c>
       <c r="V41" t="n">
-        <v>2200.298998846528</v>
+        <v>2284.714248568483</v>
       </c>
       <c r="W41" t="n">
-        <v>2084.358771618822</v>
+        <v>2084.358771618819</v>
       </c>
       <c r="X41" t="n">
-        <v>1864.508084333051</v>
+        <v>1864.508084333048</v>
       </c>
       <c r="Y41" t="n">
-        <v>1633.145682101624</v>
+        <v>1633.145682101621</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C42" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D42" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E42" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F42" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G42" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H42" t="n">
         <v>119.4829596720247</v>
@@ -7518,22 +7518,22 @@
         <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U42" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V42" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W42" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>65.27748614708536</v>
+        <v>65.27748614708484</v>
       </c>
       <c r="C43" t="n">
-        <v>57.84096980150068</v>
+        <v>57.84096980150043</v>
       </c>
       <c r="D43" t="n">
-        <v>57.84096980150068</v>
+        <v>57.84096980150043</v>
       </c>
       <c r="E43" t="n">
-        <v>57.84096980150068</v>
+        <v>57.84096980150043</v>
       </c>
       <c r="F43" t="n">
-        <v>57.84096980150068</v>
+        <v>57.84096980150043</v>
       </c>
       <c r="G43" t="n">
         <v>51.10067436208573</v>
@@ -7573,46 +7573,46 @@
         <v>84.70486210672914</v>
       </c>
       <c r="L43" t="n">
-        <v>287.8075353166146</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M43" t="n">
-        <v>405.8010414442164</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N43" t="n">
-        <v>524.2233831938167</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O43" t="n">
-        <v>622.6870296895064</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P43" t="n">
-        <v>685.6555134176442</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q43" t="n">
-        <v>685.6555134176442</v>
+        <v>685.6555134176415</v>
       </c>
       <c r="R43" t="n">
-        <v>685.6555134176442</v>
+        <v>685.6555134176415</v>
       </c>
       <c r="S43" t="n">
-        <v>634.1252040140668</v>
+        <v>634.1252040140644</v>
       </c>
       <c r="T43" t="n">
-        <v>563.1257040224806</v>
+        <v>563.1257040224784</v>
       </c>
       <c r="U43" t="n">
-        <v>438.1149177043155</v>
+        <v>438.1149177043137</v>
       </c>
       <c r="V43" t="n">
-        <v>339.5590664554731</v>
+        <v>339.5590664554716</v>
       </c>
       <c r="W43" t="n">
-        <v>215.5821181656072</v>
+        <v>215.5821181656059</v>
       </c>
       <c r="X43" t="n">
-        <v>146.509107253718</v>
+        <v>146.509107253717</v>
       </c>
       <c r="Y43" t="n">
-        <v>86.65340163873014</v>
+        <v>86.65340163872938</v>
       </c>
     </row>
     <row r="44">
@@ -7622,49 +7622,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1401.281595776339</v>
+        <v>1316.866346054383</v>
       </c>
       <c r="C44" t="n">
-        <v>1181.527290301882</v>
+        <v>1097.112040579926</v>
       </c>
       <c r="D44" t="n">
-        <v>970.8827787218402</v>
+        <v>886.4675289998847</v>
       </c>
       <c r="E44" t="n">
-        <v>738.276512020682</v>
+        <v>738.276512020681</v>
       </c>
       <c r="F44" t="n">
-        <v>486.3047745235874</v>
+        <v>486.3047745235866</v>
       </c>
       <c r="G44" t="n">
-        <v>232.3802411705104</v>
+        <v>232.3802411705099</v>
       </c>
       <c r="H44" t="n">
-        <v>61.7384199605547</v>
+        <v>61.73841996055444</v>
       </c>
       <c r="I44" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J44" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K44" t="n">
-        <v>419.962423843228</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L44" t="n">
-        <v>767.8477969281743</v>
+        <v>870.0770458388203</v>
       </c>
       <c r="M44" t="n">
-        <v>1320.039045255462</v>
+        <v>1263.316212091908</v>
       </c>
       <c r="N44" t="n">
-        <v>1698.370403943178</v>
+        <v>1641.647570779624</v>
       </c>
       <c r="O44" t="n">
-        <v>2162.327070490211</v>
+        <v>1946.652155252458</v>
       </c>
       <c r="P44" t="n">
-        <v>2390.483966946264</v>
+        <v>2231.531884872064</v>
       </c>
       <c r="Q44" t="n">
         <v>2484.916220632801</v>
@@ -7676,22 +7676,22 @@
         <v>2529.984195927376</v>
       </c>
       <c r="T44" t="n">
-        <v>2467.804702851122</v>
+        <v>2467.804702851123</v>
       </c>
       <c r="U44" t="n">
-        <v>2375.098819757851</v>
+        <v>2375.098819757852</v>
       </c>
       <c r="V44" t="n">
-        <v>2200.298998846528</v>
+        <v>2200.298998846529</v>
       </c>
       <c r="W44" t="n">
-        <v>1999.943521896864</v>
+        <v>1999.943521896865</v>
       </c>
       <c r="X44" t="n">
-        <v>1780.092834611092</v>
+        <v>1780.092834611094</v>
       </c>
       <c r="Y44" t="n">
-        <v>1548.730432379665</v>
+        <v>1548.730432379667</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7722,16 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I45" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J45" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K45" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L45" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M45" t="n">
         <v>1191.700572135723</v>
@@ -7749,7 +7749,7 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S45" t="n">
         <v>2357.162579672078</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>65.27748614708537</v>
+        <v>65.27748614708484</v>
       </c>
       <c r="C46" t="n">
-        <v>57.8409698015007</v>
+        <v>57.84096980150043</v>
       </c>
       <c r="D46" t="n">
-        <v>57.8409698015007</v>
+        <v>57.84096980150043</v>
       </c>
       <c r="E46" t="n">
-        <v>57.8409698015007</v>
+        <v>57.84096980150043</v>
       </c>
       <c r="F46" t="n">
-        <v>57.8409698015007</v>
+        <v>57.84096980150043</v>
       </c>
       <c r="G46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K46" t="n">
-        <v>84.70486210672915</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L46" t="n">
-        <v>287.8075353166146</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M46" t="n">
-        <v>405.8010414442164</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N46" t="n">
-        <v>524.2233831938167</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O46" t="n">
-        <v>622.6870296895064</v>
+        <v>622.6870296895037</v>
       </c>
       <c r="P46" t="n">
-        <v>685.6555134176442</v>
+        <v>685.6555134176415</v>
       </c>
       <c r="Q46" t="n">
-        <v>685.6555134176442</v>
+        <v>685.6555134176415</v>
       </c>
       <c r="R46" t="n">
-        <v>685.6555134176442</v>
+        <v>685.6555134176415</v>
       </c>
       <c r="S46" t="n">
-        <v>634.1252040140668</v>
+        <v>634.1252040140644</v>
       </c>
       <c r="T46" t="n">
-        <v>563.1257040224806</v>
+        <v>563.1257040224784</v>
       </c>
       <c r="U46" t="n">
-        <v>438.1149177043155</v>
+        <v>438.1149177043137</v>
       </c>
       <c r="V46" t="n">
-        <v>339.5590664554731</v>
+        <v>339.5590664554716</v>
       </c>
       <c r="W46" t="n">
-        <v>215.5821181656073</v>
+        <v>215.5821181656059</v>
       </c>
       <c r="X46" t="n">
-        <v>146.509107253718</v>
+        <v>146.509107253717</v>
       </c>
       <c r="Y46" t="n">
-        <v>86.65340163873016</v>
+        <v>86.65340163872938</v>
       </c>
     </row>
   </sheetData>
@@ -7994,7 +7994,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
-        <v>384.2197145424712</v>
+        <v>384.2197145424733</v>
       </c>
       <c r="Q2" t="n">
         <v>276.0094878578761</v>
@@ -8055,7 +8055,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
         <v>343.8048081163522</v>
@@ -8064,19 +8064,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>565.7652566600766</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>106.7151410677083</v>
+        <v>592.4392649481382</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q3" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8216,7 +8216,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>421.3890363425141</v>
+        <v>409.9307428011829</v>
       </c>
       <c r="L5" t="n">
         <v>542.9595789155856</v>
@@ -8225,7 +8225,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N5" t="n">
-        <v>461.7065933593598</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
         <v>495.0402356415689</v>
@@ -8234,7 +8234,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8292,19 +8292,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
-        <v>434.0542660882639</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>115.4839025616399</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>605.0346779723779</v>
+        <v>519.1005106900487</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8313,7 +8313,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8529,13 +8529,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
-        <v>482.0924488944969</v>
+        <v>253.0836423644577</v>
       </c>
       <c r="M9" t="n">
         <v>605.4165828749999</v>
@@ -8547,7 +8547,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
         <v>113.7351914448925</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>197.1904394555166</v>
+        <v>197.1904394555162</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9021,7 +9021,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>338.0915646308313</v>
+        <v>338.0915646308308</v>
       </c>
       <c r="Q15" t="n">
         <v>273.1004740566038</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9258,10 +9258,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>338.0915646308313</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>258.0532137313813</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9483,10 +9483,10 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>406.1824142934104</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>529.5065482739129</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
@@ -9717,10 +9717,10 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K24" t="n">
-        <v>343.8048081163522</v>
+        <v>328.7575477911296</v>
       </c>
       <c r="L24" t="n">
-        <v>467.0451885692747</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
@@ -10905,7 +10905,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>482.092448894497</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
@@ -11376,7 +11376,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163523</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>141.4465352415712</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>255.6655596168399</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>216.062896150455</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T11" t="n">
         <v>108.6851912980902</v>
@@ -23315,10 +23315,10 @@
         <v>138.9063174149372</v>
       </c>
       <c r="V11" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>15.97757354310234</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23498,10 +23498,10 @@
         <v>264.6842555723119</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E14" t="n">
-        <v>157.6783398990509</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>57.65886129508321</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>67.12540705035084</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>276.1762713617116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>43.69139357940094</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24500,7 +24500,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>103.8047687906563</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="27">
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>211.1824736430202</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24728,19 +24728,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T29" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>2.461729500606467</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -25682,13 +25682,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>83.57109722473528</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>83.57109722473866</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>83.57109722473835</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>83.57109722473466</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>663840.4111024599</v>
+        <v>663840.4111024598</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>705054.4646466258</v>
+        <v>705054.4646466257</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>705054.464646626</v>
+        <v>705054.4646466257</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>722923.2110973379</v>
+        <v>722923.2110973382</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>722923.211097338</v>
+        <v>722923.2110973382</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614099.2483953453</v>
+        <v>614099.2483953454</v>
       </c>
       <c r="C2" t="n">
-        <v>614099.2483953452</v>
+        <v>614099.2483953454</v>
       </c>
       <c r="D2" t="n">
         <v>614099.2483953454</v>
       </c>
       <c r="E2" t="n">
-        <v>559023.5040862828</v>
+        <v>559023.5040862829</v>
       </c>
       <c r="F2" t="n">
-        <v>559023.5040862828</v>
+        <v>559023.5040862829</v>
       </c>
       <c r="G2" t="n">
         <v>614099.2483953456</v>
       </c>
       <c r="H2" t="n">
+        <v>614099.2483953459</v>
+      </c>
+      <c r="I2" t="n">
         <v>614099.2483953458</v>
       </c>
-      <c r="I2" t="n">
-        <v>614099.2483953455</v>
-      </c>
       <c r="J2" t="n">
-        <v>593730.0754918967</v>
+        <v>593730.0754918962</v>
       </c>
       <c r="K2" t="n">
-        <v>593730.0754918966</v>
+        <v>593730.0754918962</v>
       </c>
       <c r="L2" t="n">
         <v>614099.2483953463</v>
       </c>
       <c r="M2" t="n">
-        <v>614099.2483953454</v>
+        <v>614099.2483953453</v>
       </c>
       <c r="N2" t="n">
-        <v>614099.2483953455</v>
+        <v>614099.2483953458</v>
       </c>
       <c r="O2" t="n">
-        <v>608777.4409240738</v>
+        <v>608777.4409240737</v>
       </c>
       <c r="P2" t="n">
-        <v>608777.4409240736</v>
+        <v>608777.4409240737</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166998.3381661036</v>
+        <v>166998.3381661038</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8381.935660246398</v>
+        <v>8381.935660246239</v>
       </c>
       <c r="E3" t="n">
         <v>118895.2819258113</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>211744.3539054199</v>
+        <v>211744.35390542</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>68771.66874756759</v>
+        <v>68771.6687475676</v>
       </c>
       <c r="M3" t="n">
-        <v>19514.53999589755</v>
+        <v>19514.53999589753</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40159.91818518101</v>
+        <v>40159.91818518121</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193048.1106246011</v>
+        <v>193048.110624601</v>
       </c>
       <c r="C4" t="n">
-        <v>193048.1106246011</v>
+        <v>193048.110624601</v>
       </c>
       <c r="D4" t="n">
         <v>185775.7593332931</v>
       </c>
       <c r="E4" t="n">
-        <v>138282.3314920319</v>
+        <v>138282.3314920318</v>
       </c>
       <c r="F4" t="n">
-        <v>138282.3314920319</v>
+        <v>138282.3314920318</v>
       </c>
       <c r="G4" t="n">
         <v>177327.6980802156</v>
@@ -26439,10 +26439,10 @@
         <v>177327.6980802156</v>
       </c>
       <c r="J4" t="n">
-        <v>161817.5237554867</v>
+        <v>161817.5237554866</v>
       </c>
       <c r="K4" t="n">
-        <v>161817.5237554868</v>
+        <v>161817.5237554866</v>
       </c>
       <c r="L4" t="n">
         <v>176098.133827888</v>
@@ -26454,10 +26454,10 @@
         <v>175623.1205402357</v>
       </c>
       <c r="O4" t="n">
-        <v>171843.7722931107</v>
+        <v>171843.7722931108</v>
       </c>
       <c r="P4" t="n">
-        <v>171843.7722931107</v>
+        <v>171843.7722931109</v>
       </c>
     </row>
     <row r="5">
@@ -26467,37 +26467,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63925.42784380392</v>
+        <v>63925.42784380395</v>
       </c>
       <c r="C5" t="n">
-        <v>63925.42784380392</v>
+        <v>63925.42784380395</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>47206.86677207318</v>
+        <v>47206.86677207317</v>
       </c>
       <c r="F5" t="n">
-        <v>47206.86677207318</v>
+        <v>47206.86677207317</v>
       </c>
       <c r="G5" t="n">
-        <v>52054.18958228953</v>
+        <v>52054.18958228952</v>
       </c>
       <c r="H5" t="n">
-        <v>52054.18958228953</v>
+        <v>52054.18958228952</v>
       </c>
       <c r="I5" t="n">
         <v>52054.18958228952</v>
       </c>
       <c r="J5" t="n">
-        <v>55745.55144345442</v>
+        <v>55745.55144345438</v>
       </c>
       <c r="K5" t="n">
-        <v>55745.55144345442</v>
+        <v>55745.55144345437</v>
       </c>
       <c r="L5" t="n">
-        <v>56484.57861505465</v>
+        <v>56484.57861505464</v>
       </c>
       <c r="M5" t="n">
         <v>52802.81689264637</v>
@@ -26506,10 +26506,10 @@
         <v>52802.81689264637</v>
       </c>
       <c r="O5" t="n">
-        <v>52334.43432114059</v>
+        <v>52334.43432114062</v>
       </c>
       <c r="P5" t="n">
-        <v>52334.4343211406</v>
+        <v>52334.43432114062</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>190127.3717608367</v>
       </c>
       <c r="C6" t="n">
-        <v>357125.7099269402</v>
+        <v>357125.7099269405</v>
       </c>
       <c r="D6" t="n">
-        <v>354375.5187648945</v>
+        <v>354375.5187648946</v>
       </c>
       <c r="E6" t="n">
-        <v>254639.0238963664</v>
+        <v>254466.9121954008</v>
       </c>
       <c r="F6" t="n">
-        <v>373534.3058221778</v>
+        <v>373362.1941212121</v>
       </c>
       <c r="G6" t="n">
         <v>338590.2716967739</v>
       </c>
       <c r="H6" t="n">
+        <v>384717.3607328407</v>
+      </c>
+      <c r="I6" t="n">
         <v>384717.3607328406</v>
       </c>
-      <c r="I6" t="n">
-        <v>384717.3607328404</v>
-      </c>
       <c r="J6" t="n">
-        <v>164422.6463875356</v>
+        <v>164358.9927222121</v>
       </c>
       <c r="K6" t="n">
-        <v>376167.0002929554</v>
+        <v>376103.346627632</v>
       </c>
       <c r="L6" t="n">
         <v>312744.8672048362</v>
       </c>
       <c r="M6" t="n">
-        <v>366158.7709665658</v>
+        <v>366158.7709665657</v>
       </c>
       <c r="N6" t="n">
-        <v>385673.3109624635</v>
+        <v>385673.3109624637</v>
       </c>
       <c r="O6" t="n">
-        <v>344439.3161246415</v>
+        <v>344422.6854762933</v>
       </c>
       <c r="P6" t="n">
-        <v>384599.2343098223</v>
+        <v>384582.6036614744</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="O2" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="P2" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
     </row>
     <row r="3">
@@ -26787,37 +26787,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.3195369046697</v>
+        <v>498.3195369046702</v>
       </c>
       <c r="C4" t="n">
-        <v>498.3195369046697</v>
+        <v>498.3195369046702</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>619.5872728283483</v>
+        <v>619.5872728283482</v>
       </c>
       <c r="F4" t="n">
-        <v>619.5872728283483</v>
+        <v>619.5872728283482</v>
       </c>
       <c r="G4" t="n">
-        <v>619.5872728283483</v>
+        <v>619.5872728283482</v>
       </c>
       <c r="H4" t="n">
-        <v>619.5872728283483</v>
+        <v>619.5872728283482</v>
       </c>
       <c r="I4" t="n">
-        <v>619.5872728283482</v>
+        <v>619.5872728283481</v>
       </c>
       <c r="J4" t="n">
-        <v>760.0261654497504</v>
+        <v>760.0261654497498</v>
       </c>
       <c r="K4" t="n">
-        <v>760.0261654497504</v>
+        <v>760.0261654497497</v>
       </c>
       <c r="L4" t="n">
-        <v>733.0425010894297</v>
+        <v>733.0425010894296</v>
       </c>
       <c r="M4" t="n">
         <v>638.7584295260717</v>
@@ -26829,7 +26829,7 @@
         <v>638.7584295260716</v>
       </c>
       <c r="P4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260716</v>
       </c>
     </row>
   </sheetData>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>85.96458593445948</v>
+        <v>85.96458593445951</v>
       </c>
       <c r="M2" t="n">
-        <v>24.39317499487194</v>
+        <v>24.39317499487191</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>50.19989773147626</v>
+        <v>50.19989773147651</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.3195369046697</v>
+        <v>498.3195369046702</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>26.98366436032063</v>
+        <v>26.98366436032012</v>
       </c>
       <c r="E4" t="n">
-        <v>94.284071563358</v>
+        <v>94.28407156335788</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260718</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>498.3195369046697</v>
+        <v>498.3195369046702</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>26.98366436032063</v>
+        <v>26.98366436032012</v>
       </c>
       <c r="M4" t="n">
-        <v>94.284071563358</v>
+        <v>94.28407156335788</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
+        <v>38.63807568329997</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>287.4974794810079</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -27433,16 +27433,16 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>28.97771457194904</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>187.3311756219932</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27537,10 +27537,10 @@
         <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>151.5411742405149</v>
+        <v>12.53713850962399</v>
       </c>
       <c r="E4" t="n">
         <v>150.4889240962943</v>
@@ -27549,10 +27549,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
         <v>142.7610139533483</v>
@@ -27600,10 +27600,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>27.21075658445227</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
         <v>369.0957251250487</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>144.3335006033108</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
         <v>252.3364829231459</v>
@@ -27682,7 +27682,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>169.1005546704716</v>
       </c>
     </row>
     <row r="6">
@@ -27704,13 +27704,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>59.58823547156432</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27746,10 +27746,10 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>162.3245746415732</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27783,7 +27783,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>12.00878840432787</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
         <v>167.2305511458285</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
         <v>148.0265635717656</v>
@@ -27840,7 +27840,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.8148072196457</v>
+        <v>42.71577926664506</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
@@ -27862,13 +27862,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>291.991987282856</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>145.8696938275717</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
@@ -27935,7 +27935,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27944,7 +27944,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>38.69958338708309</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>57.60636999204326</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
         <v>151.5411742405149</v>
@@ -28056,13 +28056,13 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>63.70773940111974</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
@@ -28074,7 +28074,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
-        <v>51.84091151057743</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
         <v>219.8148072196457</v>
@@ -28114,28 +28114,28 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K11" t="n">
-        <v>33.0363322919018</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>9.338070422797671</v>
       </c>
       <c r="P11" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R11" t="n">
-        <v>89.73190363910518</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="S11" t="n">
         <v>113.4301655082087</v>
@@ -28181,10 +28181,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>88.96491619802933</v>
       </c>
       <c r="H12" t="n">
-        <v>88.96491619802892</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28348,31 +28348,31 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J14" t="n">
-        <v>33.03633229190204</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K14" t="n">
+        <v>9.338070422797841</v>
+      </c>
+      <c r="L14" t="n">
         <v>113.4301655082087</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
         <v>113.4301655082087</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>113.4301655082087</v>
-      </c>
-      <c r="R14" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
         <v>113.4301655082087</v>
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>88.96491619802892</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28451,10 +28451,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>29.77848998202552</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -28585,31 +28585,31 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>120.8806788490493</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>171.0890268032919</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
         <v>171.0890268032919</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>120.8806788490496</v>
       </c>
       <c r="S17" t="n">
         <v>171.0890268032919</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>29.77848998202552</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28700,7 +28700,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>88.96491619802879</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I19" t="n">
-        <v>146.0103242936257</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J19" t="n">
         <v>59.456666199969</v>
@@ -28767,7 +28767,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
-        <v>148.0265635717656</v>
+        <v>151.2758739120429</v>
       </c>
       <c r="S19" t="n">
         <v>171.0890268032919</v>
@@ -28831,22 +28831,22 @@
         <v>171.0890268032919</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="N20" t="n">
-        <v>31.14877520994457</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>89.73190363910518</v>
+        <v>120.8806788490491</v>
       </c>
       <c r="S20" t="n">
         <v>171.0890268032919</v>
@@ -28892,10 +28892,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>88.96491619802892</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>88.96491619802936</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28974,13 +28974,13 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H22" t="n">
-        <v>161.0282291087964</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I22" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J22" t="n">
-        <v>59.456666199969</v>
+        <v>62.70597654024644</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29062,7 +29062,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>31.14877520994409</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29071,7 +29071,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="O23" t="n">
         <v>171.0890268032919</v>
@@ -29080,10 +29080,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>89.73190363910518</v>
+        <v>120.8806788490486</v>
       </c>
       <c r="S23" t="n">
         <v>171.0890268032919</v>
@@ -29123,13 +29123,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>88.96491619802941</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>88.96491619802978</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -29196,7 +29196,7 @@
         <v>171.0890268032919</v>
       </c>
       <c r="C25" t="n">
-        <v>167.9198098429365</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29214,7 +29214,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I25" t="n">
-        <v>146.0103242936257</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J25" t="n">
         <v>59.456666199969</v>
@@ -29241,7 +29241,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>148.0265635717656</v>
+        <v>148.1066569516874</v>
       </c>
       <c r="S25" t="n">
         <v>171.0890268032919</v>
@@ -29296,7 +29296,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J26" t="n">
-        <v>113.4301655082087</v>
+        <v>111.6986801837949</v>
       </c>
       <c r="K26" t="n">
         <v>113.4301655082087</v>
@@ -29317,7 +29317,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="Q26" t="n">
-        <v>111.6986801837977</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R26" t="n">
         <v>113.4301655082087</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29411,7 +29411,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>14.56549128550378</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -29548,7 +29548,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="O29" t="n">
-        <v>111.698680183798</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P29" t="n">
         <v>113.4301655082087</v>
@@ -29557,7 +29557,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="R29" t="n">
-        <v>113.4301655082087</v>
+        <v>111.6986801837949</v>
       </c>
       <c r="S29" t="n">
         <v>113.4301655082087</v>
@@ -29606,7 +29606,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>14.56549128550355</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -29639,7 +29639,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>14.56549128550353</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -29776,25 +29776,25 @@
         <v>141.735890147585</v>
       </c>
       <c r="L32" t="n">
+        <v>61.88025498773806</v>
+      </c>
+      <c r="M32" t="n">
         <v>141.735890147585</v>
-      </c>
-      <c r="M32" t="n">
-        <v>113.8842414962186</v>
       </c>
       <c r="N32" t="n">
         <v>141.735890147585</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>141.735890147585</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
         <v>141.735890147585</v>
-      </c>
-      <c r="R32" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
         <v>141.735890147585</v>
@@ -29837,7 +29837,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>14.56549128550341</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29928,25 +29928,25 @@
         <v>141.735890147585</v>
       </c>
       <c r="J34" t="n">
+        <v>59.456666199969</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>102.4257494917422</v>
+      </c>
+      <c r="P34" t="n">
         <v>141.735890147585</v>
-      </c>
-      <c r="K34" t="n">
-        <v>141.735890147585</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>20.14652554412682</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>141.735890147585</v>
@@ -30007,31 +30007,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="M35" t="n">
-        <v>166.1290651424569</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>40.58157162934918</v>
-      </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>116.9787331327008</v>
       </c>
       <c r="R35" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30077,7 +30077,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>14.56549128550328</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30159,7 +30159,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H37" t="n">
-        <v>166.1290651424569</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I37" t="n">
         <v>142.7610139533483</v>
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>38.33547045601495</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30186,10 +30186,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>38.15196793284785</v>
+        <v>66.73508319210941</v>
       </c>
       <c r="R37" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S37" t="n">
         <v>166.1290651424569</v>
@@ -30244,31 +30244,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>40.5815716293493</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>116.9787331327012</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>166.1290651424569</v>
-      </c>
-      <c r="R38" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>14.5654912855036</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30365,7 +30365,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>14.5654912855039</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -30396,7 +30396,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H40" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I40" t="n">
         <v>142.7610139533483</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>28.58311525926163</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30417,7 +30417,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>38.33547045601495</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R40" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S40" t="n">
         <v>166.1290651424569</v>
@@ -30457,40 +30457,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="C41" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="D41" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="E41" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="F41" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="G41" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="H41" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="I41" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>57.29579107429711</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>57.29579107429578</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30499,34 +30499,34 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>160.5576586608077</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="R41" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="S41" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="T41" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="U41" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="V41" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="W41" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="X41" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="Y41" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
     </row>
     <row r="42">
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30590,7 +30590,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>14.56549128550355</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="C43" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,7 +30630,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="H43" t="n">
         <v>157.7789187685189</v>
@@ -30645,7 +30645,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>103.5309028380061</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>141.6828707708511</v>
       </c>
       <c r="R43" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="T43" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="U43" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="V43" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="W43" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="X43" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="Y43" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
     </row>
     <row r="44">
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="C44" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="D44" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="E44" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="F44" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="G44" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="H44" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="I44" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>57.29579107429677</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="M44" t="n">
-        <v>160.5576586608077</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>160.5576586608077</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>57.29579107429595</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="R44" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="S44" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="T44" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="U44" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="V44" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="W44" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="X44" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="Y44" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
     </row>
     <row r="45">
@@ -30821,10 +30821,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>14.56549128550353</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="C46" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,7 +30867,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="H46" t="n">
         <v>157.7789187685189</v>
@@ -30882,7 +30882,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>103.5309028380061</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30891,7 +30891,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>103.5309028380032</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S46" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="T46" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="U46" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="V46" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="W46" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="X46" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
       <c r="Y46" t="n">
-        <v>160.5576586608077</v>
+        <v>160.5576586608079</v>
       </c>
     </row>
   </sheetData>
@@ -34714,7 +34714,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
-        <v>196.3429054913147</v>
+        <v>196.3429054913168</v>
       </c>
       <c r="Q2" t="n">
         <v>95.38611483488586</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>231.8086389496855</v>
@@ -34784,19 +34784,19 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>450.2813540984367</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>485.7241238804299</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>242.5660323684674</v>
+        <v>231.1077388271361</v>
       </c>
       <c r="L5" t="n">
         <v>351.3993667524709</v>
@@ -34945,7 +34945,7 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N5" t="n">
-        <v>275.3084791871297</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
         <v>308.0854388614484</v>
@@ -34954,7 +34954,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>321.4788325171162</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>498.3195369046697</v>
+        <v>412.3853696223404</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35033,7 +35033,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
-        <v>369.5170153233491</v>
+        <v>140.5082087933099</v>
       </c>
       <c r="M9" t="n">
         <v>489.93268031336</v>
@@ -35267,7 +35267,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>186.155967803972</v>
       </c>
       <c r="K11" t="n">
-        <v>275.6023646603692</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M11" t="n">
-        <v>510.6414445517319</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N11" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>308.0854388614484</v>
+        <v>317.4235092842461</v>
       </c>
       <c r="P11" t="n">
         <v>343.8916770799797</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.38611483488586</v>
+        <v>208.8162803430946</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>23.69826186910355</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>83.45524801062412</v>
+        <v>83.45524801062366</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>105.7621345876653</v>
+        <v>186.155967803972</v>
       </c>
       <c r="K14" t="n">
-        <v>355.9961978766761</v>
+        <v>251.9041027912653</v>
       </c>
       <c r="L14" t="n">
-        <v>351.3993667524709</v>
+        <v>464.8295322606797</v>
       </c>
       <c r="M14" t="n">
-        <v>397.2112790435232</v>
+        <v>510.6414445517319</v>
       </c>
       <c r="N14" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O14" t="n">
-        <v>421.5156043696572</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>208.8162803430946</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>23.69826186910355</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P15" t="n">
-        <v>229.2373586066879</v>
+        <v>229.2373586066875</v>
       </c>
       <c r="Q15" t="n">
         <v>159.3652826117113</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>243.8148290990552</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
-        <v>242.5660323684674</v>
+        <v>363.4467112175167</v>
       </c>
       <c r="L17" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
-        <v>568.3003058468151</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
-        <v>382.1528875633492</v>
+        <v>553.2419143666411</v>
       </c>
       <c r="O17" t="n">
         <v>308.0854388614484</v>
@@ -35905,7 +35905,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
-        <v>31.14877520994437</v>
+        <v>81.35712316418676</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>231.8086389496855</v>
@@ -35978,10 +35978,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P18" t="n">
-        <v>229.2373586066879</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.3652826117113</v>
+        <v>144.3180222864888</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36036,7 +36036,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>3.249310340277435</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -36063,7 +36063,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>3.249310340277364</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36127,22 +36127,22 @@
         <v>522.4883935557629</v>
       </c>
       <c r="M20" t="n">
-        <v>397.2112790435232</v>
+        <v>568.3003058468151</v>
       </c>
       <c r="N20" t="n">
-        <v>413.3016627732938</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O20" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>401.5505383750628</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>31.14877520994391</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L21" t="n">
-        <v>293.6069807222626</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M21" t="n">
-        <v>489.93268031336</v>
+        <v>414.0226457122731</v>
       </c>
       <c r="N21" t="n">
         <v>516.4299455789112</v>
@@ -36270,13 +36270,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>3.249310340277435</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>3.249310340277443</v>
       </c>
       <c r="K22" t="n">
         <v>33.9436239844883</v>
@@ -36358,7 +36358,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
-        <v>273.7148075784115</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
         <v>351.3993667524709</v>
@@ -36367,7 +36367,7 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
-        <v>382.1528875633492</v>
+        <v>553.2419143666411</v>
       </c>
       <c r="O23" t="n">
         <v>479.1744656647404</v>
@@ -36376,10 +36376,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
-        <v>266.4751416381778</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>31.14877520994345</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>231.8086389496855</v>
+        <v>216.7613786244629</v>
       </c>
       <c r="L24" t="n">
-        <v>354.469754998127</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M24" t="n">
         <v>489.93268031336</v>
@@ -36492,7 +36492,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>3.169216960355442</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -36510,7 +36510,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>3.249310340277443</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -36537,7 +36537,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>0.0800933799218405</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>186.155967803972</v>
+        <v>184.4244824795582</v>
       </c>
       <c r="K26" t="n">
         <v>355.9961978766761</v>
@@ -36613,7 +36613,7 @@
         <v>343.8916770799797</v>
       </c>
       <c r="Q26" t="n">
-        <v>207.0847950186835</v>
+        <v>208.8162803430946</v>
       </c>
       <c r="R26" t="n">
         <v>23.69826186910355</v>
@@ -36844,7 +36844,7 @@
         <v>495.583053071558</v>
       </c>
       <c r="O29" t="n">
-        <v>419.7841190452464</v>
+        <v>421.5156043696572</v>
       </c>
       <c r="P29" t="n">
         <v>343.8916770799797</v>
@@ -36853,7 +36853,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R29" t="n">
-        <v>23.69826186910355</v>
+        <v>21.9667765446897</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>214.4616924433483</v>
       </c>
       <c r="K32" t="n">
-        <v>384.3019225160524</v>
+        <v>384.3019225160525</v>
       </c>
       <c r="L32" t="n">
-        <v>493.1352569000559</v>
+        <v>413.279621740209</v>
       </c>
       <c r="M32" t="n">
-        <v>511.0955205397418</v>
+        <v>538.9471691911082</v>
       </c>
       <c r="N32" t="n">
-        <v>523.8887777109342</v>
+        <v>523.8887777109343</v>
       </c>
       <c r="O32" t="n">
-        <v>308.0854388614484</v>
+        <v>449.8213290090334</v>
       </c>
       <c r="P32" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q32" t="n">
-        <v>237.1220049824709</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>52.00398650847984</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>82.279223947616</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>175.6795141320733</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L34" t="n">
         <v>101.6233125255146</v>
@@ -37239,13 +37239,13 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
-        <v>119.6047543276517</v>
+        <v>201.8839782752671</v>
       </c>
       <c r="P34" t="n">
-        <v>63.604529018321</v>
+        <v>205.340419165906</v>
       </c>
       <c r="Q34" t="n">
-        <v>103.5839222147371</v>
+        <v>103.5839222147372</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K35" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L35" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M35" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N35" t="n">
         <v>382.1528875633492</v>
@@ -37321,13 +37321,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
-        <v>271.0430832011201</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q35" t="n">
-        <v>95.38611483488586</v>
+        <v>212.3648479675866</v>
       </c>
       <c r="R35" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37455,7 +37455,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>8.350146373938031</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L37" t="n">
-        <v>139.9587829815296</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M37" t="n">
         <v>119.1853597248502</v>
@@ -37482,10 +37482,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>28.58311525926155</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K38" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L38" t="n">
-        <v>351.3993667524709</v>
+        <v>391.9809383818202</v>
       </c>
       <c r="M38" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N38" t="n">
-        <v>499.1316206960504</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O38" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.86277427586479</v>
+        <v>60.86277427586489</v>
       </c>
       <c r="K39" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L39" t="n">
-        <v>369.5170153233492</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M39" t="n">
         <v>489.93268031336</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L40" t="n">
-        <v>130.2064277847763</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M40" t="n">
         <v>119.1853597248502</v>
@@ -37713,7 +37713,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O40" t="n">
-        <v>99.45822878352493</v>
+        <v>137.7936992395399</v>
       </c>
       <c r="P40" t="n">
         <v>63.604529018321</v>
@@ -37722,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
-        <v>299.8618234427645</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>351.3993667524709</v>
+        <v>408.6951578267667</v>
       </c>
       <c r="M41" t="n">
-        <v>397.2112790435232</v>
+        <v>557.7689377043312</v>
       </c>
       <c r="N41" t="n">
         <v>382.1528875633492</v>
@@ -37795,13 +37795,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
-        <v>391.0191702325786</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
-        <v>255.9437734956935</v>
+        <v>255.9437734956938</v>
       </c>
       <c r="R41" t="n">
-        <v>70.82575502170249</v>
+        <v>70.82575502170275</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L43" t="n">
-        <v>205.1542153635207</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M43" t="n">
         <v>119.1853597248502</v>
@@ -37956,7 +37956,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>103.5309028380032</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>299.8618234427642</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>351.3993667524709</v>
+        <v>511.9570254132789</v>
       </c>
       <c r="M44" t="n">
-        <v>557.7689377043308</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>468.6430975222561</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
-        <v>230.4615115717709</v>
+        <v>287.7573026460669</v>
       </c>
       <c r="Q44" t="n">
-        <v>95.38611483488586</v>
+        <v>255.9437734956938</v>
       </c>
       <c r="R44" t="n">
-        <v>70.82575502170249</v>
+        <v>70.82575502170275</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K45" t="n">
-        <v>231.8086389496856</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L45" t="n">
         <v>369.5170153233491</v>
@@ -38178,7 +38178,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L46" t="n">
-        <v>205.1542153635207</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M46" t="n">
         <v>119.1853597248502</v>
@@ -38187,7 +38187,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O46" t="n">
-        <v>99.45822878352493</v>
+        <v>202.9891316215282</v>
       </c>
       <c r="P46" t="n">
         <v>63.604529018321</v>
